--- a/PhoenixCI/Excel_Template/30370.xlsx
+++ b/PhoenixCI/Excel_Template/30370.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\PB\CI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AF51754-34BD-4B4A-8AD5-8269555352EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D653483-9558-43AB-ACA3-938B0FFC5AD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13425" yWindow="6210" windowWidth="15375" windowHeight="7875"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="14895" windowHeight="8955"/>
   </bookViews>
   <sheets>
     <sheet name="30371" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -813,7 +812,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -836,22 +835,28 @@
     <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1073,7 +1078,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-B109-40D6-A4CB-BBA48B98AF90}"/>
+                <c16:uniqueId val="{00000000-7C81-4D35-A857-C07F31D405EE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1093,7 +1098,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B109-40D6-A4CB-BBA48B98AF90}"/>
+                <c16:uniqueId val="{00000001-7C81-4D35-A857-C07F31D405EE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1113,7 +1118,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-B109-40D6-A4CB-BBA48B98AF90}"/>
+                <c16:uniqueId val="{00000002-7C81-4D35-A857-C07F31D405EE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1133,7 +1138,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B109-40D6-A4CB-BBA48B98AF90}"/>
+                <c16:uniqueId val="{00000003-7C81-4D35-A857-C07F31D405EE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1153,7 +1158,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-B109-40D6-A4CB-BBA48B98AF90}"/>
+                <c16:uniqueId val="{00000004-7C81-4D35-A857-C07F31D405EE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1173,7 +1178,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B109-40D6-A4CB-BBA48B98AF90}"/>
+                <c16:uniqueId val="{00000005-7C81-4D35-A857-C07F31D405EE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1193,7 +1198,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-B109-40D6-A4CB-BBA48B98AF90}"/>
+                <c16:uniqueId val="{00000006-7C81-4D35-A857-C07F31D405EE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1213,7 +1218,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B109-40D6-A4CB-BBA48B98AF90}"/>
+                <c16:uniqueId val="{00000007-7C81-4D35-A857-C07F31D405EE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1260,7 +1265,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-B109-40D6-A4CB-BBA48B98AF90}"/>
+                  <c16:uniqueId val="{00000000-7C81-4D35-A857-C07F31D405EE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1306,7 +1311,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-B109-40D6-A4CB-BBA48B98AF90}"/>
+                  <c16:uniqueId val="{00000001-7C81-4D35-A857-C07F31D405EE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1352,7 +1357,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-B109-40D6-A4CB-BBA48B98AF90}"/>
+                  <c16:uniqueId val="{00000002-7C81-4D35-A857-C07F31D405EE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1398,7 +1403,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-B109-40D6-A4CB-BBA48B98AF90}"/>
+                  <c16:uniqueId val="{00000003-7C81-4D35-A857-C07F31D405EE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1444,7 +1449,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-B109-40D6-A4CB-BBA48B98AF90}"/>
+                  <c16:uniqueId val="{00000004-7C81-4D35-A857-C07F31D405EE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1490,7 +1495,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-B109-40D6-A4CB-BBA48B98AF90}"/>
+                  <c16:uniqueId val="{00000005-7C81-4D35-A857-C07F31D405EE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1536,7 +1541,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-B109-40D6-A4CB-BBA48B98AF90}"/>
+                  <c16:uniqueId val="{00000006-7C81-4D35-A857-C07F31D405EE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1582,7 +1587,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-B109-40D6-A4CB-BBA48B98AF90}"/>
+                  <c16:uniqueId val="{00000007-7C81-4D35-A857-C07F31D405EE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1690,7 +1695,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-B109-40D6-A4CB-BBA48B98AF90}"/>
+              <c16:uniqueId val="{00000008-7C81-4D35-A857-C07F31D405EE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1713,7 +1718,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B109-40D6-A4CB-BBA48B98AF90}"/>
+                <c16:uniqueId val="{00000009-7C81-4D35-A857-C07F31D405EE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1733,7 +1738,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000A-B109-40D6-A4CB-BBA48B98AF90}"/>
+                <c16:uniqueId val="{0000000A-7C81-4D35-A857-C07F31D405EE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1753,7 +1758,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B109-40D6-A4CB-BBA48B98AF90}"/>
+                <c16:uniqueId val="{0000000B-7C81-4D35-A857-C07F31D405EE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1773,7 +1778,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000C-B109-40D6-A4CB-BBA48B98AF90}"/>
+                <c16:uniqueId val="{0000000C-7C81-4D35-A857-C07F31D405EE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1793,7 +1798,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B109-40D6-A4CB-BBA48B98AF90}"/>
+                <c16:uniqueId val="{0000000D-7C81-4D35-A857-C07F31D405EE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1813,7 +1818,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000E-B109-40D6-A4CB-BBA48B98AF90}"/>
+                <c16:uniqueId val="{0000000E-7C81-4D35-A857-C07F31D405EE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1833,7 +1838,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-B109-40D6-A4CB-BBA48B98AF90}"/>
+                <c16:uniqueId val="{0000000F-7C81-4D35-A857-C07F31D405EE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1853,7 +1858,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000010-B109-40D6-A4CB-BBA48B98AF90}"/>
+                <c16:uniqueId val="{00000010-7C81-4D35-A857-C07F31D405EE}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1894,7 +1899,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-B109-40D6-A4CB-BBA48B98AF90}"/>
+                  <c16:uniqueId val="{00000009-7C81-4D35-A857-C07F31D405EE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1934,7 +1939,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-B109-40D6-A4CB-BBA48B98AF90}"/>
+                  <c16:uniqueId val="{0000000A-7C81-4D35-A857-C07F31D405EE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1974,7 +1979,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-B109-40D6-A4CB-BBA48B98AF90}"/>
+                  <c16:uniqueId val="{0000000B-7C81-4D35-A857-C07F31D405EE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2014,7 +2019,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-B109-40D6-A4CB-BBA48B98AF90}"/>
+                  <c16:uniqueId val="{0000000C-7C81-4D35-A857-C07F31D405EE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2054,7 +2059,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-B109-40D6-A4CB-BBA48B98AF90}"/>
+                  <c16:uniqueId val="{0000000D-7C81-4D35-A857-C07F31D405EE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2094,7 +2099,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-B109-40D6-A4CB-BBA48B98AF90}"/>
+                  <c16:uniqueId val="{0000000E-7C81-4D35-A857-C07F31D405EE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2134,7 +2139,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-B109-40D6-A4CB-BBA48B98AF90}"/>
+                  <c16:uniqueId val="{0000000F-7C81-4D35-A857-C07F31D405EE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2174,7 +2179,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-B109-40D6-A4CB-BBA48B98AF90}"/>
+                  <c16:uniqueId val="{00000010-7C81-4D35-A857-C07F31D405EE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2282,7 +2287,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-B109-40D6-A4CB-BBA48B98AF90}"/>
+              <c16:uniqueId val="{00000011-7C81-4D35-A857-C07F31D405EE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2475,7 +2480,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-BFA3-4401-AEE3-DA25F5F51317}"/>
+                <c16:uniqueId val="{00000000-58A1-4448-BD9B-3B49C3146B3E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2495,7 +2500,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-BFA3-4401-AEE3-DA25F5F51317}"/>
+                <c16:uniqueId val="{00000001-58A1-4448-BD9B-3B49C3146B3E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2515,7 +2520,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-BFA3-4401-AEE3-DA25F5F51317}"/>
+                <c16:uniqueId val="{00000002-58A1-4448-BD9B-3B49C3146B3E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2535,7 +2540,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-BFA3-4401-AEE3-DA25F5F51317}"/>
+                <c16:uniqueId val="{00000003-58A1-4448-BD9B-3B49C3146B3E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2555,7 +2560,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-BFA3-4401-AEE3-DA25F5F51317}"/>
+                <c16:uniqueId val="{00000004-58A1-4448-BD9B-3B49C3146B3E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2575,7 +2580,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-BFA3-4401-AEE3-DA25F5F51317}"/>
+                <c16:uniqueId val="{00000005-58A1-4448-BD9B-3B49C3146B3E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2595,7 +2600,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-BFA3-4401-AEE3-DA25F5F51317}"/>
+                <c16:uniqueId val="{00000006-58A1-4448-BD9B-3B49C3146B3E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2615,7 +2620,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-BFA3-4401-AEE3-DA25F5F51317}"/>
+                <c16:uniqueId val="{00000007-58A1-4448-BD9B-3B49C3146B3E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2662,7 +2667,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-BFA3-4401-AEE3-DA25F5F51317}"/>
+                  <c16:uniqueId val="{00000000-58A1-4448-BD9B-3B49C3146B3E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2708,7 +2713,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-BFA3-4401-AEE3-DA25F5F51317}"/>
+                  <c16:uniqueId val="{00000001-58A1-4448-BD9B-3B49C3146B3E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2754,7 +2759,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-BFA3-4401-AEE3-DA25F5F51317}"/>
+                  <c16:uniqueId val="{00000002-58A1-4448-BD9B-3B49C3146B3E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2800,7 +2805,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-BFA3-4401-AEE3-DA25F5F51317}"/>
+                  <c16:uniqueId val="{00000003-58A1-4448-BD9B-3B49C3146B3E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2846,7 +2851,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-BFA3-4401-AEE3-DA25F5F51317}"/>
+                  <c16:uniqueId val="{00000004-58A1-4448-BD9B-3B49C3146B3E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2892,7 +2897,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-BFA3-4401-AEE3-DA25F5F51317}"/>
+                  <c16:uniqueId val="{00000005-58A1-4448-BD9B-3B49C3146B3E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2938,7 +2943,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-BFA3-4401-AEE3-DA25F5F51317}"/>
+                  <c16:uniqueId val="{00000006-58A1-4448-BD9B-3B49C3146B3E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2984,7 +2989,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-BFA3-4401-AEE3-DA25F5F51317}"/>
+                  <c16:uniqueId val="{00000007-58A1-4448-BD9B-3B49C3146B3E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3092,7 +3097,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-BFA3-4401-AEE3-DA25F5F51317}"/>
+              <c16:uniqueId val="{00000008-58A1-4448-BD9B-3B49C3146B3E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3360,7 +3365,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{42036667-27BD-490A-A076-4EC41B634EDF}</c15:txfldGUID>
+                      <c15:txfldGUID>{1261A34F-F47B-49FC-9650-9BABF0B2A148}</c15:txfldGUID>
                       <c15:f>Data_30375!$B$101</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -3373,7 +3378,7 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-7E93-43E2-8FDF-5F630D23F8A2}"/>
+                  <c16:uniqueId val="{00000001-047F-4554-89C5-58C7791F9B7E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3714,7 +3719,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7E93-43E2-8FDF-5F630D23F8A2}"/>
+              <c16:uniqueId val="{00000002-047F-4554-89C5-58C7791F9B7E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3728,11 +3733,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="387939224"/>
+        <c:axId val="367223872"/>
         <c:axId val="1"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="387939224"/>
+        <c:axId val="367223872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3908,7 +3913,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387939224"/>
+        <c:crossAx val="367223872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3987,7 +3992,7 @@
         <xdr:cNvPr id="22542" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F577C64-EB60-48D0-B625-F394A3459D90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B404BC34-704B-4570-9A66-E168237C300F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4030,7 +4035,7 @@
         <xdr:cNvPr id="21518" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A3D4872-09A2-4817-BB37-5E76ECDE7853}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57C9A473-BB4C-480E-A704-796B71537602}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4063,7 +4068,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC7A3199-7927-4AD6-BDA8-013A54ED8DFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0606C7-78FD-4E4F-AB07-90BA906B6091}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4436,7 +4441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="U56" sqref="U56"/>
     </sheetView>
   </sheetViews>
@@ -4454,101 +4459,101 @@
     <col min="10" max="10" width="7.25" style="1" customWidth="1"/>
     <col min="11" max="11" width="7.125" style="1" customWidth="1"/>
     <col min="12" max="17" width="8" style="1" customWidth="1"/>
-    <col min="18" max="18" width="3.375" style="17" customWidth="1"/>
-    <col min="19" max="19" width="3.25" style="17" customWidth="1"/>
-    <col min="20" max="20" width="3.125" style="17" customWidth="1"/>
-    <col min="21" max="21" width="8" style="12" customWidth="1"/>
+    <col min="18" max="18" width="3.375" style="19" customWidth="1"/>
+    <col min="19" max="19" width="3.25" style="19" customWidth="1"/>
+    <col min="20" max="20" width="3.125" style="19" customWidth="1"/>
+    <col min="21" max="21" width="8" style="14" customWidth="1"/>
     <col min="22" max="16384" width="8" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.2" customHeight="1" thickBot="1">
-      <c r="A1" s="12">
+    <row r="1" spans="1:21" ht="15.2" customHeight="1" thickBot="1">
+      <c r="A1" s="14">
         <v>34</v>
       </c>
-      <c r="B1" s="13">
+      <c r="B1" s="15">
         <v>2002</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="10" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A2" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="47" t="s">
+    <row r="2" spans="1:21" ht="15.2" customHeight="1">
+      <c r="A2" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="41" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="49"/>
-      <c r="N2" s="41" t="s">
+      <c r="M2" s="51"/>
+      <c r="N2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="50"/>
-      <c r="P2" s="41" t="s">
+      <c r="O2" s="52"/>
+      <c r="P2" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="18" t="s">
+      <c r="Q2" s="44"/>
+      <c r="R2" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A3" s="46"/>
-      <c r="B3" s="52" t="s">
+    <row r="3" spans="1:21" ht="15.2" customHeight="1">
+      <c r="A3" s="48"/>
+      <c r="B3" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="52" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="52" t="s">
+      <c r="E3" s="55"/>
+      <c r="F3" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="52" t="s">
+      <c r="G3" s="55"/>
+      <c r="H3" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="52" t="s">
+      <c r="I3" s="55"/>
+      <c r="J3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="44"/>
-    </row>
-    <row r="4" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A4" s="46"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="46"/>
+    </row>
+    <row r="4" spans="1:21" ht="15.2" customHeight="1">
+      <c r="A4" s="48"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -4588,7 +4593,7 @@
       <c r="N4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="O4" s="26" t="s">
         <v>8</v>
       </c>
       <c r="P4" s="2" t="s">
@@ -4597,18 +4602,18 @@
       <c r="Q4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="19" t="s">
+      <c r="R4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="19" t="s">
+      <c r="S4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="19" t="s">
+      <c r="T4" s="21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:21" ht="15.2" customHeight="1">
+      <c r="A5" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="4"/>
@@ -4625,90 +4630,90 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="20">
+      <c r="P5" s="9"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="22">
         <f t="shared" ref="R5:R16" si="0">SUM(B5:Q5)/2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:21">
+      <c r="A6" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="28">
         <f>IF(R5=0,0,ROUND(B5/R5,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="28">
         <f>IF(R5=0,0,ROUND(C5/R5,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="28">
         <f>IF(R5=0,0,ROUND(D5/R5,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="28">
         <f>IF(R5=0,0,ROUND(E5/R5,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="28">
         <f>IF(R5=0,0,ROUND(F5/R5,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="28">
         <f>IF(R5=0,0,ROUND(G5/R5,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="28">
         <f>IF(R5=0,0,ROUND(H5/R5,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="28">
         <f>IF(R5=0,0,ROUND(I5/R5,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="28">
         <f>IF(R5=0,0,ROUND(J5/R5,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="28">
         <f>IF(R5=0,0,ROUND(K5/R5,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L6" s="27">
+      <c r="L6" s="29">
         <f>IF(R5=0,0,ROUND(L5/R5,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M6" s="27">
+      <c r="M6" s="29">
         <f>IF(R5=0,0,ROUND(M5/R5,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N6" s="27">
+      <c r="N6" s="29">
         <f>IF(R5=0,0,ROUND(N5/R5,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O6" s="27">
+      <c r="O6" s="29">
         <f>IF(R5=0,0,ROUND(O5/R5,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="20">
+      <c r="P6" s="9"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S6" s="21">
+      <c r="S6" s="23">
         <f>(B6+D6+F6+H6+J6+N6)</f>
         <v>0</v>
       </c>
-      <c r="T6" s="21">
+      <c r="T6" s="23">
         <f>(C6+E6+G6+I6+K6+O6)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:21" s="8" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A7" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="6"/>
@@ -4724,105 +4729,106 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
-      <c r="O7" s="25"/>
+      <c r="O7" s="27"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="20">
+      <c r="R7" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S7" s="22">
+      <c r="S7" s="24">
         <f>B7+D7+F7+H7+J7+L7+N7</f>
         <v>0</v>
       </c>
-      <c r="T7" s="22">
+      <c r="T7" s="24">
         <f>C7+E7+G7+I7+K7+M7+O7</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="30" t="s">
+      <c r="U7" s="14"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="28">
         <f>IF(R7=0,0,ROUND(B7/R7,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="28">
         <f>IF(R7=0,0,ROUND(C7/R7,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="28">
         <f>IF(R7=0,0,ROUND(D7/R7,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="28">
         <f>IF(R7=0,0,ROUND(E7/R7,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="28">
         <f>IF(R7=0,0,ROUND(F7/R7,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="28">
         <f>IF(R7=0,0,ROUND(G7/R7,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="28">
         <f>IF(R7=0,0,ROUND(H7/R7,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="28">
         <f>IF(R7=0,0,ROUND(I7/R7,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="28">
         <f>IF(R7=0,0,ROUND(J7/R7,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="28">
         <f>IF(R7=0,0,ROUND(K7/R7,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L8" s="27">
+      <c r="L8" s="29">
         <f>IF(R7=0,0,ROUND(L7/R7,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M8" s="27">
+      <c r="M8" s="29">
         <f>IF(R7=0,0,ROUND(M7/R7,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="28">
         <f>IF(R7=0,0,ROUND(N7/R7,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O8" s="28">
+      <c r="O8" s="30">
         <f>IF(R7=0,0,ROUND(O7/R7,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P8" s="26">
+      <c r="P8" s="28">
         <f>IF(R7=0,0,ROUND(P7/R7,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="29">
+      <c r="Q8" s="31">
         <f>IF(R7=0,0,ROUND(Q7/R7,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R8" s="20">
+      <c r="R8" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S8" s="21">
+      <c r="S8" s="23">
         <f>(B8+D8+F8+H8+J8+N8)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="21">
+      <c r="T8" s="23">
         <f>(C8+E8+G8+I8+K8+O8)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:21" s="8" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A9" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="6"/>
@@ -4838,105 +4844,106 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
-      <c r="O9" s="25"/>
+      <c r="O9" s="27"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="5"/>
-      <c r="R9" s="20">
+      <c r="R9" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S9" s="22">
+      <c r="S9" s="24">
         <f>B9+D9+F9+H9+J9+L9+N9</f>
         <v>0</v>
       </c>
-      <c r="T9" s="22">
+      <c r="T9" s="24">
         <f>C9+E9+G9+I9+K9+M9+O9</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="30" t="s">
+      <c r="U9" s="14"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="28">
         <f>IF(R9=0,0,ROUND(B9/R9,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="28">
         <f>IF(R9=0,0,ROUND(C9/R9,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="28">
         <f>IF(R9=0,0,ROUND(D9/R9,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="28">
         <f>IF(R9=0,0,ROUND(E9/R9,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="28">
         <f>IF(R9=0,0,ROUND(F9/R9,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="28">
         <f>IF(R9=0,0,ROUND(G9/R9,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="28">
         <f>IF(R9=0,0,ROUND(H9/R9,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="28">
         <f>IF(R9=0,0,ROUND(I9/R9,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="28">
         <f>IF(R9=0,0,ROUND(J9/R9,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="28">
         <f>IF(R9=0,0,ROUND(K9/R9,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L10" s="27">
+      <c r="L10" s="29">
         <f>IF(R9=0,0,ROUND(L9/R9,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M10" s="27">
+      <c r="M10" s="29">
         <f>IF(R9=0,0,ROUND(M9/R9,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N10" s="26">
+      <c r="N10" s="28">
         <f>IF(R9=0,0,ROUND(N9/R9,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O10" s="28">
+      <c r="O10" s="30">
         <f>IF(R9=0,0,ROUND(O9/R9,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P10" s="26">
+      <c r="P10" s="28">
         <f>IF(R9=0,0,ROUND(P9/R9,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="29">
+      <c r="Q10" s="31">
         <f>IF(R9=0,0,ROUND(Q9/R9,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R10" s="20">
+      <c r="R10" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S10" s="21">
+      <c r="S10" s="23">
         <f>(B10+D10+F10+H10+J10+N10)</f>
         <v>0</v>
       </c>
-      <c r="T10" s="21">
+      <c r="T10" s="23">
         <f>(C10+E10+G10+I10+K10+O10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:21" s="8" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A11" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="6"/>
@@ -4952,105 +4959,106 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
-      <c r="O11" s="25"/>
+      <c r="O11" s="27"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="5"/>
-      <c r="R11" s="20">
+      <c r="R11" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S11" s="22">
+      <c r="S11" s="24">
         <f>B11+D11+F11+H11+J11+L11+N11</f>
         <v>0</v>
       </c>
-      <c r="T11" s="22">
+      <c r="T11" s="24">
         <f>C11+E11+G11+I11+K11+M11+O11</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="30" t="s">
+      <c r="U11" s="14"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="28">
         <f>IF(R11=0,0,ROUND(B11/R11,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="28">
         <f>IF(R11=0,0,ROUND(C11/R11,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="28">
         <f>IF(R11=0,0,ROUND(D11/R11,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="28">
         <f>IF(R11=0,0,ROUND(E11/R11,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="28">
         <f>IF(R11=0,0,ROUND(F11/R11,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="28">
         <f>IF(R11=0,0,ROUND(G11/R11,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="28">
         <f>IF(R11=0,0,ROUND(H11/R11,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="28">
         <f>IF(R11=0,0,ROUND(I11/R11,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J12" s="26">
+      <c r="J12" s="28">
         <f>IF(R11=0,0,ROUND(J11/R11,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="28">
         <f>IF(R11=0,0,ROUND(K11/R11,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L12" s="27">
+      <c r="L12" s="29">
         <f>IF(R11=0,0,ROUND(L11/R11,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M12" s="27">
+      <c r="M12" s="29">
         <f>IF(R11=0,0,ROUND(M11/R11,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N12" s="26">
+      <c r="N12" s="28">
         <f>IF(R11=0,0,ROUND(N11/R11,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O12" s="28">
+      <c r="O12" s="30">
         <f>IF(R11=0,0,ROUND(O11/R11,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P12" s="26">
+      <c r="P12" s="28">
         <f>IF(R11=0,0,ROUND(P11/R11,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="29">
+      <c r="Q12" s="31">
         <f>IF(R11=0,0,ROUND(Q11/R11,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R12" s="20">
+      <c r="R12" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S12" s="21">
+      <c r="S12" s="23">
         <f>(B12+D12+F12+H12+J12+N12)</f>
         <v>0</v>
       </c>
-      <c r="T12" s="21">
+      <c r="T12" s="23">
         <f>(C12+E12+G12+I12+K12+O12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:21" s="8" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A13" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="6"/>
@@ -5066,105 +5074,106 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="25"/>
+      <c r="O13" s="27"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="5"/>
-      <c r="R13" s="20">
+      <c r="R13" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S13" s="22">
+      <c r="S13" s="24">
         <f>B13+D13+F13+H13+J13+L13+N13</f>
         <v>0</v>
       </c>
-      <c r="T13" s="22">
+      <c r="T13" s="24">
         <f>C13+E13+G13+I13+K13+M13+O13</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="30" t="s">
+      <c r="U13" s="14"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="28">
         <f>IF(R13=0,0,ROUND(B13/R13,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="28">
         <f>IF(R13=0,0,ROUND(C13/R13,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="28">
         <f>IF(R13=0,0,ROUND(D13/R13,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="28">
         <f>IF(R13=0,0,ROUND(E13/R13,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="28">
         <f>IF(R13=0,0,ROUND(F13/R13,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="28">
         <f>IF(R13=0,0,ROUND(G13/R13,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="28">
         <f>IF(R13=0,0,ROUND(H13/R13,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I14" s="26">
+      <c r="I14" s="28">
         <f>IF(R13=0,0,ROUND(I13/R13,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J14" s="28">
         <f>IF(R13=0,0,ROUND(J13/R13,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="28">
         <f>IF(R13=0,0,ROUND(K13/R13,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L14" s="27">
+      <c r="L14" s="29">
         <f>IF(R13=0,0,ROUND(L13/R13,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M14" s="27">
+      <c r="M14" s="29">
         <f>IF(R13=0,0,ROUND(M13/R13,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N14" s="26">
+      <c r="N14" s="28">
         <f>IF(R13=0,0,ROUND(N13/R13,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O14" s="28">
+      <c r="O14" s="30">
         <f>IF(R13=0,0,ROUND(O13/R13,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P14" s="26">
+      <c r="P14" s="28">
         <f>IF(R13=0,0,ROUND(P13/R13,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="29">
+      <c r="Q14" s="31">
         <f>IF(R13=0,0,ROUND(Q13/R13,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R14" s="20">
+      <c r="R14" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S14" s="21">
+      <c r="S14" s="23">
         <f>(B14+D14+F14+H14+J14+N14)</f>
         <v>0</v>
       </c>
-      <c r="T14" s="21">
+      <c r="T14" s="23">
         <f>(C14+E14+G14+I14+K14+O14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:21" s="8" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A15" s="18" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="6"/>
@@ -5180,105 +5189,106 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
-      <c r="O15" s="25"/>
+      <c r="O15" s="27"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="5"/>
-      <c r="R15" s="20">
+      <c r="R15" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S15" s="22">
+      <c r="S15" s="24">
         <f>B15+D15+F15+H15+J15+L15+N15</f>
         <v>0</v>
       </c>
-      <c r="T15" s="22">
+      <c r="T15" s="24">
         <f>C15+E15+G15+I15+K15+M15+O15</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="30" t="s">
+      <c r="U15" s="14"/>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="28">
         <f>IF(R15=0,0,ROUND(B15/R15,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="28">
         <f>IF(R15=0,0,ROUND(C15/R15,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="28">
         <f>IF(R15=0,0,ROUND(D15/R15,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="28">
         <f>IF(R15=0,0,ROUND(E15/R15,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="28">
         <f>IF(R15=0,0,ROUND(F15/R15,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="28">
         <f>IF(R15=0,0,ROUND(G15/R15,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="28">
         <f>IF(R15=0,0,ROUND(H15/R15,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="28">
         <f>IF(R15=0,0,ROUND(I15/R15,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="28">
         <f>IF(R15=0,0,ROUND(J15/R15,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="28">
         <f>IF(R15=0,0,ROUND(K15/R15,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L16" s="27">
+      <c r="L16" s="29">
         <f>IF(R15=0,0,ROUND(L15/R15,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M16" s="27">
+      <c r="M16" s="29">
         <f>IF(R15=0,0,ROUND(M15/R15,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N16" s="26">
+      <c r="N16" s="28">
         <f>IF(R15=0,0,ROUND(N15/R15,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O16" s="28">
+      <c r="O16" s="30">
         <f>IF(R15=0,0,ROUND(O15/R15,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P16" s="26">
+      <c r="P16" s="28">
         <f>IF(R15=0,0,ROUND(P15/R15,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="29">
+      <c r="Q16" s="31">
         <f>IF(R15=0,0,ROUND(Q15/R15,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R16" s="20">
+      <c r="R16" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S16" s="21">
+      <c r="S16" s="23">
         <f>(B16+D16+F16+H16+J16+N16)</f>
         <v>0</v>
       </c>
-      <c r="T16" s="21">
+      <c r="T16" s="23">
         <f>(C16+E16+G16+I16+K16+O16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:21" s="8" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A17" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="6"/>
@@ -5294,105 +5304,106 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="25"/>
+      <c r="O17" s="27"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="5"/>
-      <c r="R17" s="20">
+      <c r="R17" s="22">
         <f t="shared" ref="R17:R24" si="1">SUM(B17:Q17)/2</f>
         <v>0</v>
       </c>
-      <c r="S17" s="22">
+      <c r="S17" s="24">
         <f>B17+D17+F17+H17+J17+L17+N17</f>
         <v>0</v>
       </c>
-      <c r="T17" s="22">
+      <c r="T17" s="24">
         <f>C17+E17+G17+I17+K17+M17+O17</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" s="30" t="s">
+      <c r="U17" s="14"/>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="28">
         <f>IF(R17=0,0,ROUND(B17/R17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="28">
         <f>IF(R17=0,0,ROUND(C17/R17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="28">
         <f>IF(R17=0,0,ROUND(D17/R17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="28">
         <f>IF(R17=0,0,ROUND(E17/R17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="28">
         <f>IF(R17=0,0,ROUND(F17/R17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="28">
         <f>IF(R17=0,0,ROUND(G17/R17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="28">
         <f>IF(R17=0,0,ROUND(H17/R17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I18" s="28">
         <f>IF(R17=0,0,ROUND(I17/R17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J18" s="26">
+      <c r="J18" s="28">
         <f>IF(R17=0,0,ROUND(J17/R17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K18" s="26">
+      <c r="K18" s="28">
         <f>IF(R17=0,0,ROUND(K17/R17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L18" s="27">
+      <c r="L18" s="29">
         <f>IF(R17=0,0,ROUND(L17/R17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M18" s="27">
+      <c r="M18" s="29">
         <f>IF(R17=0,0,ROUND(M17/R17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N18" s="26">
+      <c r="N18" s="28">
         <f>IF(R17=0,0,ROUND(N17/R17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O18" s="28">
+      <c r="O18" s="30">
         <f>IF(R17=0,0,ROUND(O17/R17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P18" s="26">
+      <c r="P18" s="28">
         <f>IF(R17=0,0,ROUND(P17/R17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="29">
+      <c r="Q18" s="31">
         <f>IF(R17=0,0,ROUND(Q17/R17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R18" s="20">
+      <c r="R18" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S18" s="21">
+      <c r="S18" s="23">
         <f>(B18+D18+F18+H18+J18+N18)</f>
         <v>0</v>
       </c>
-      <c r="T18" s="21">
+      <c r="T18" s="23">
         <f>(C18+E18+G18+I18+K18+O18)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A19" s="16" t="s">
+    <row r="19" spans="1:21" s="8" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A19" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="6"/>
@@ -5408,105 +5419,106 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
-      <c r="O19" s="25"/>
+      <c r="O19" s="27"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="5"/>
-      <c r="R19" s="20">
+      <c r="R19" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S19" s="22">
+      <c r="S19" s="24">
         <f>B19+D19+F19+H19+J19+L19+N19</f>
         <v>0</v>
       </c>
-      <c r="T19" s="22">
+      <c r="T19" s="24">
         <f>C19+E19+G19+I19+K19+M19+O19</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="30" t="s">
+      <c r="U19" s="14"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="28">
         <f>IF(R19=0,0,ROUND(B19/R19,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="28">
         <f>IF(R19=0,0,ROUND(C19/R19,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="28">
         <f>IF(R19=0,0,ROUND(D19/R19,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="28">
         <f>IF(R19=0,0,ROUND(E19/R19,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="28">
         <f>IF(R19=0,0,ROUND(F19/R19,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="28">
         <f>IF(R19=0,0,ROUND(G19/R19,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="28">
         <f>IF(R19=0,0,ROUND(H19/R19,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="28">
         <f>IF(R19=0,0,ROUND(I19/R19,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J20" s="26">
+      <c r="J20" s="28">
         <f>IF(R19=0,0,ROUND(J19/R19,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K20" s="26">
+      <c r="K20" s="28">
         <f>IF(R19=0,0,ROUND(K19/R19,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L20" s="27">
+      <c r="L20" s="29">
         <f>IF(R19=0,0,ROUND(L19/R19,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M20" s="27">
+      <c r="M20" s="29">
         <f>IF(R19=0,0,ROUND(M19/R19,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N20" s="26">
+      <c r="N20" s="28">
         <f>IF(R19=0,0,ROUND(N19/R19,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O20" s="28">
+      <c r="O20" s="30">
         <f>IF(R19=0,0,ROUND(O19/R19,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P20" s="26">
+      <c r="P20" s="28">
         <f>IF(R19=0,0,ROUND(P19/R19,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="29">
+      <c r="Q20" s="31">
         <f>IF(R19=0,0,ROUND(Q19/R19,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R20" s="20">
+      <c r="R20" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S20" s="21">
+      <c r="S20" s="23">
         <f>(B20+D20+F20+H20+J20+N20)</f>
         <v>0</v>
       </c>
-      <c r="T20" s="21">
+      <c r="T20" s="23">
         <f>(C20+E20+G20+I20+K20+O20)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A21" s="16" t="s">
+    <row r="21" spans="1:21" s="8" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A21" s="18" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="6"/>
@@ -5522,105 +5534,106 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
-      <c r="O21" s="25"/>
+      <c r="O21" s="27"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="5"/>
-      <c r="R21" s="20">
+      <c r="R21" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S21" s="22">
+      <c r="S21" s="24">
         <f>B21+D21+F21+H21+J21+L21+N21</f>
         <v>0</v>
       </c>
-      <c r="T21" s="22">
+      <c r="T21" s="24">
         <f>C21+E21+G21+I21+K21+M21+O21</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" s="30" t="s">
+      <c r="U21" s="14"/>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="28">
         <f>IF(R21=0,0,ROUND(B21/R21,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="28">
         <f>IF(R21=0,0,ROUND(C21/R21,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="28">
         <f>IF(R21=0,0,ROUND(D21/R21,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="28">
         <f>IF(R21=0,0,ROUND(E21/R21,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="28">
         <f>IF(R21=0,0,ROUND(F21/R21,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="28">
         <f>IF(R21=0,0,ROUND(G21/R21,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="28">
         <f>IF(R21=0,0,ROUND(H21/R21,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I22" s="26">
+      <c r="I22" s="28">
         <f>IF(R21=0,0,ROUND(I21/R21,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J22" s="26">
+      <c r="J22" s="28">
         <f>IF(R21=0,0,ROUND(J21/R21,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K22" s="26">
+      <c r="K22" s="28">
         <f>IF(R21=0,0,ROUND(K21/R21,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L22" s="27">
+      <c r="L22" s="29">
         <f>IF(R21=0,0,ROUND(L21/R21,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M22" s="27">
+      <c r="M22" s="29">
         <f>IF(R21=0,0,ROUND(M21/R21,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N22" s="26">
+      <c r="N22" s="28">
         <f>IF(R21=0,0,ROUND(N21/R21,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O22" s="28">
+      <c r="O22" s="30">
         <f>IF(R21=0,0,ROUND(O21/R21,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P22" s="26">
+      <c r="P22" s="28">
         <f>IF(R21=0,0,ROUND(P21/R21,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="29">
+      <c r="Q22" s="31">
         <f>IF(R21=0,0,ROUND(Q21/R21,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R22" s="20">
+      <c r="R22" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S22" s="21">
+      <c r="S22" s="23">
         <f>(B22+D22+F22+H22+J22+N22)</f>
         <v>0</v>
       </c>
-      <c r="T22" s="21">
+      <c r="T22" s="23">
         <f>(C22+E22+G22+I22+K22+O22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A23" s="16" t="s">
+    <row r="23" spans="1:21" s="8" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A23" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="6"/>
@@ -5636,105 +5649,106 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
-      <c r="O23" s="25"/>
+      <c r="O23" s="27"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="5"/>
-      <c r="R23" s="20">
+      <c r="R23" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S23" s="22">
+      <c r="S23" s="24">
         <f>B23+D23+F23+H23+J23+L23+N23</f>
         <v>0</v>
       </c>
-      <c r="T23" s="22">
+      <c r="T23" s="24">
         <f>C23+E23+G23+I23+K23+M23+O23</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" s="30" t="s">
+      <c r="U23" s="14"/>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="28">
         <f>IF(R23=0,0,ROUND(B23/R23,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="28">
         <f>IF(R23=0,0,ROUND(C23/R23,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="28">
         <f>IF(R23=0,0,ROUND(D23/R23,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="28">
         <f>IF(R23=0,0,ROUND(E23/R23,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="28">
         <f>IF(R23=0,0,ROUND(F23/R23,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="28">
         <f>IF(R23=0,0,ROUND(G23/R23,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="28">
         <f>IF(R23=0,0,ROUND(H23/R23,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I24" s="26">
+      <c r="I24" s="28">
         <f>IF(R23=0,0,ROUND(I23/R23,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J24" s="26">
+      <c r="J24" s="28">
         <f>IF(R23=0,0,ROUND(J23/R23,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K24" s="26">
+      <c r="K24" s="28">
         <f>IF(R23=0,0,ROUND(K23/R23,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L24" s="27">
+      <c r="L24" s="29">
         <f>IF(R23=0,0,ROUND(L23/R23,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M24" s="27">
+      <c r="M24" s="29">
         <f>IF(R23=0,0,ROUND(M23/R23,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N24" s="26">
+      <c r="N24" s="28">
         <f>IF(R23=0,0,ROUND(N23/R23,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O24" s="28">
+      <c r="O24" s="30">
         <f>IF(R23=0,0,ROUND(O23/R23,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P24" s="26">
+      <c r="P24" s="28">
         <f>IF(R23=0,0,ROUND(P23/R23,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="29">
+      <c r="Q24" s="31">
         <f>IF(R23=0,0,ROUND(Q23/R23,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R24" s="20">
+      <c r="R24" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S24" s="21">
+      <c r="S24" s="23">
         <f>(B24+D24+F24+H24+J24+N24)</f>
         <v>0</v>
       </c>
-      <c r="T24" s="21">
+      <c r="T24" s="23">
         <f>(C24+E24+G24+I24+K24+O24)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A25" s="16" t="s">
+    <row r="25" spans="1:21" s="8" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A25" s="18" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="6"/>
@@ -5750,105 +5764,106 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="25"/>
+      <c r="O25" s="27"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="5"/>
-      <c r="R25" s="20">
+      <c r="R25" s="22">
         <f t="shared" ref="R25:R34" si="2">SUM(B25:Q25)/2</f>
         <v>0</v>
       </c>
-      <c r="S25" s="22">
+      <c r="S25" s="24">
         <f>B25+D25+F25+H25+J25+L25+N25</f>
         <v>0</v>
       </c>
-      <c r="T25" s="22">
+      <c r="T25" s="24">
         <f>C25+E25+G25+I25+K25+M25+O25</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="30" t="s">
+      <c r="U25" s="14"/>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="28">
         <f>IF(R25=0,0,ROUND(B25/R25,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="28">
         <f>IF(R25=0,0,ROUND(C25/R25,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="28">
         <f>IF(R25=0,0,ROUND(D25/R25,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="28">
         <f>IF(R25=0,0,ROUND(E25/R25,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="28">
         <f>IF(R25=0,0,ROUND(F25/R25,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G26" s="26">
+      <c r="G26" s="28">
         <f>IF(R25=0,0,ROUND(G25/R25,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="28">
         <f>IF(R25=0,0,ROUND(H25/R25,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I26" s="26">
+      <c r="I26" s="28">
         <f>IF(R25=0,0,ROUND(I25/R25,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J26" s="26">
+      <c r="J26" s="28">
         <f>IF(R25=0,0,ROUND(J25/R25,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K26" s="26">
+      <c r="K26" s="28">
         <f>IF(R25=0,0,ROUND(K25/R25,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L26" s="27">
+      <c r="L26" s="29">
         <f>IF(R25=0,0,ROUND(L25/R25,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M26" s="27">
+      <c r="M26" s="29">
         <f>IF(R25=0,0,ROUND(M25/R25,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N26" s="26">
+      <c r="N26" s="28">
         <f>IF(R25=0,0,ROUND(N25/R25,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O26" s="28">
+      <c r="O26" s="30">
         <f>IF(R25=0,0,ROUND(O25/R25,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P26" s="26">
+      <c r="P26" s="28">
         <f>IF(R25=0,0,ROUND(P25/R25,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="29">
+      <c r="Q26" s="31">
         <f>IF(R25=0,0,ROUND(Q25/R25,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R26" s="20">
+      <c r="R26" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S26" s="21">
+      <c r="S26" s="23">
         <f>(B26+D26+F26+H26+J26+N26)</f>
         <v>0</v>
       </c>
-      <c r="T26" s="21">
+      <c r="T26" s="23">
         <f>(C26+E26+G26+I26+K26+O26)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A27" s="16" t="s">
+    <row r="27" spans="1:21" s="8" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A27" s="18" t="s">
         <v>31</v>
       </c>
       <c r="B27" s="6"/>
@@ -5864,105 +5879,106 @@
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
-      <c r="O27" s="25"/>
+      <c r="O27" s="27"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="5"/>
-      <c r="R27" s="20">
+      <c r="R27" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S27" s="22">
+      <c r="S27" s="24">
         <f>B27+D27+F27+H27+J27+L27+N27</f>
         <v>0</v>
       </c>
-      <c r="T27" s="22">
+      <c r="T27" s="24">
         <f>C27+E27+G27+I27+K27+M27+O27</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" s="30" t="s">
+      <c r="U27" s="14"/>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="28">
         <f>IF(R27=0,0,ROUND(B27/R27,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="28">
         <f>IF(R27=0,0,ROUND(C27/R27,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="28">
         <f>IF(R27=0,0,ROUND(D27/R27,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E28" s="26">
+      <c r="E28" s="28">
         <f>IF(R27=0,0,ROUND(E27/R27,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F28" s="26">
+      <c r="F28" s="28">
         <f>IF(R27=0,0,ROUND(F27/R27,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G28" s="26">
+      <c r="G28" s="28">
         <f>IF(R27=0,0,ROUND(G27/R27,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H28" s="26">
+      <c r="H28" s="28">
         <f>IF(R27=0,0,ROUND(H27/R27,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I28" s="26">
+      <c r="I28" s="28">
         <f>IF(R27=0,0,ROUND(I27/R27,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J28" s="26">
+      <c r="J28" s="28">
         <f>IF(R27=0,0,ROUND(J27/R27,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K28" s="26">
+      <c r="K28" s="28">
         <f>IF(R27=0,0,ROUND(K27/R27,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L28" s="27">
+      <c r="L28" s="29">
         <f>IF(R27=0,0,ROUND(L27/R27,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M28" s="27">
+      <c r="M28" s="29">
         <f>IF(R27=0,0,ROUND(M27/R27,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N28" s="26">
+      <c r="N28" s="28">
         <f>IF(R27=0,0,ROUND(N27/R27,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O28" s="28">
+      <c r="O28" s="30">
         <f>IF(R27=0,0,ROUND(O27/R27,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P28" s="26">
+      <c r="P28" s="28">
         <f>IF(R27=0,0,ROUND(P27/R27,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="29">
+      <c r="Q28" s="31">
         <f>IF(R27=0,0,ROUND(Q27/R27,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R28" s="20">
+      <c r="R28" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S28" s="21">
+      <c r="S28" s="23">
         <f>(B28+D28+F28+H28+J28+N28)</f>
         <v>0</v>
       </c>
-      <c r="T28" s="21">
+      <c r="T28" s="23">
         <f>(C28+E28+G28+I28+K28+O28)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A29" s="16" t="s">
+    <row r="29" spans="1:21" s="8" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A29" s="18" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="6"/>
@@ -5978,105 +5994,106 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
-      <c r="O29" s="25"/>
+      <c r="O29" s="27"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="5"/>
-      <c r="R29" s="20">
+      <c r="R29" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S29" s="22">
+      <c r="S29" s="24">
         <f>B29+D29+F29+H29+J29+L29+N29</f>
         <v>0</v>
       </c>
-      <c r="T29" s="22">
+      <c r="T29" s="24">
         <f>C29+E29+G29+I29+K29+M29+O29</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" s="30" t="s">
+      <c r="U29" s="14"/>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="28">
         <f>IF(R29=0,0,ROUND(B29/R29,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="28">
         <f>IF(R29=0,0,ROUND(C29/R29,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D30" s="28">
         <f>IF(R29=0,0,ROUND(D29/R29,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E30" s="26">
+      <c r="E30" s="28">
         <f>IF(R29=0,0,ROUND(E29/R29,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F30" s="26">
+      <c r="F30" s="28">
         <f>IF(R29=0,0,ROUND(F29/R29,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G30" s="26">
+      <c r="G30" s="28">
         <f>IF(R29=0,0,ROUND(G29/R29,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H30" s="26">
+      <c r="H30" s="28">
         <f>IF(R29=0,0,ROUND(H29/R29,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I30" s="26">
+      <c r="I30" s="28">
         <f>IF(R29=0,0,ROUND(I29/R29,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J30" s="26">
+      <c r="J30" s="28">
         <f>IF(R29=0,0,ROUND(J29/R29,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K30" s="26">
+      <c r="K30" s="28">
         <f>IF(R29=0,0,ROUND(K29/R29,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L30" s="27">
+      <c r="L30" s="29">
         <f>IF(R29=0,0,ROUND(L29/R29,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M30" s="27">
+      <c r="M30" s="29">
         <f>IF(R29=0,0,ROUND(M29/R29,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N30" s="26">
+      <c r="N30" s="28">
         <f>IF(R29=0,0,ROUND(N29/R29,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O30" s="28">
+      <c r="O30" s="30">
         <f>IF(R29=0,0,ROUND(O29/R29,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P30" s="26">
+      <c r="P30" s="28">
         <f>IF(R29=0,0,ROUND(P29/R29,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="29">
+      <c r="Q30" s="31">
         <f>IF(R29=0,0,ROUND(Q29/R29,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R30" s="20">
+      <c r="R30" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S30" s="21">
+      <c r="S30" s="23">
         <f>(B30+D30+F30+H30+J30+N30)</f>
         <v>0</v>
       </c>
-      <c r="T30" s="21">
+      <c r="T30" s="23">
         <f>(C30+E30+G30+I30+K30+O30)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A31" s="16" t="s">
+    <row r="31" spans="1:21" s="8" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A31" s="18" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="6"/>
@@ -6092,105 +6109,106 @@
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
-      <c r="O31" s="25"/>
+      <c r="O31" s="27"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="5"/>
-      <c r="R31" s="20">
+      <c r="R31" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S31" s="22">
+      <c r="S31" s="24">
         <f>B31+D31+F31+H31+J31+L31+N31</f>
         <v>0</v>
       </c>
-      <c r="T31" s="22">
+      <c r="T31" s="24">
         <f>C31+E31+G31+I31+K31+M31+O31</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" s="30" t="s">
+      <c r="U31" s="14"/>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="26">
+      <c r="B32" s="28">
         <f>IF(R31=0,0,ROUND(B31/R31,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C32" s="28">
         <f>IF(R31=0,0,ROUND(C31/R31,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D32" s="28">
         <f>IF(R31=0,0,ROUND(D31/R31,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E32" s="26">
+      <c r="E32" s="28">
         <f>IF(R31=0,0,ROUND(E31/R31,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F32" s="26">
+      <c r="F32" s="28">
         <f>IF(R31=0,0,ROUND(F31/R31,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G32" s="26">
+      <c r="G32" s="28">
         <f>IF(R31=0,0,ROUND(G31/R31,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H32" s="26">
+      <c r="H32" s="28">
         <f>IF(R31=0,0,ROUND(H31/R31,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I32" s="26">
+      <c r="I32" s="28">
         <f>IF(R31=0,0,ROUND(I31/R31,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J32" s="26">
+      <c r="J32" s="28">
         <f>IF(R31=0,0,ROUND(J31/R31,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K32" s="26">
+      <c r="K32" s="28">
         <f>IF(R31=0,0,ROUND(K31/R31,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L32" s="27">
+      <c r="L32" s="29">
         <f>IF(R31=0,0,ROUND(L31/R31,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M32" s="27">
+      <c r="M32" s="29">
         <f>IF(R31=0,0,ROUND(M31/R31,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N32" s="26">
+      <c r="N32" s="28">
         <f>IF(R31=0,0,ROUND(N31/R31,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O32" s="28">
+      <c r="O32" s="30">
         <f>IF(R31=0,0,ROUND(O31/R31,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P32" s="26">
+      <c r="P32" s="28">
         <f>IF(R31=0,0,ROUND(P31/R31,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q32" s="29">
+      <c r="Q32" s="31">
         <f>IF(R31=0,0,ROUND(Q31/R31,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R32" s="20">
+      <c r="R32" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S32" s="21">
+      <c r="S32" s="23">
         <f>(B32+D32+F32+H32+J32+N32)</f>
         <v>0</v>
       </c>
-      <c r="T32" s="21">
+      <c r="T32" s="23">
         <f>(C32+E32+G32+I32+K32+O32)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A33" s="16" t="s">
+    <row r="33" spans="1:21" s="8" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A33" s="18" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="6"/>
@@ -6206,105 +6224,106 @@
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
-      <c r="O33" s="25"/>
+      <c r="O33" s="27"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="5"/>
-      <c r="R33" s="20">
+      <c r="R33" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S33" s="22">
+      <c r="S33" s="24">
         <f>B33+D33+F33+H33+J33+L33+N33</f>
         <v>0</v>
       </c>
-      <c r="T33" s="22">
+      <c r="T33" s="24">
         <f>C33+E33+G33+I33+K33+M33+O33</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" s="30" t="s">
+      <c r="U33" s="14"/>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="26">
+      <c r="B34" s="28">
         <f>IF(R33=0,0,ROUND(B33/R33,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="28">
         <f>IF(R33=0,0,ROUND(C33/R33,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D34" s="26">
+      <c r="D34" s="28">
         <f>IF(R33=0,0,ROUND(D33/R33,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E34" s="26">
+      <c r="E34" s="28">
         <f>IF(R33=0,0,ROUND(E33/R33,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F34" s="26">
+      <c r="F34" s="28">
         <f>IF(R33=0,0,ROUND(F33/R33,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G34" s="26">
+      <c r="G34" s="28">
         <f>IF(R33=0,0,ROUND(G33/R33,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H34" s="26">
+      <c r="H34" s="28">
         <f>IF(R33=0,0,ROUND(H33/R33,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I34" s="26">
+      <c r="I34" s="28">
         <f>IF(R33=0,0,ROUND(I33/R33,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J34" s="26">
+      <c r="J34" s="28">
         <f>IF(R33=0,0,ROUND(J33/R33,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K34" s="26">
+      <c r="K34" s="28">
         <f>IF(R33=0,0,ROUND(K33/R33,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L34" s="27">
+      <c r="L34" s="29">
         <f>IF(R33=0,0,ROUND(L33/R33,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M34" s="27">
+      <c r="M34" s="29">
         <f>IF(R33=0,0,ROUND(M33/R33,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N34" s="26">
+      <c r="N34" s="28">
         <f>IF(R33=0,0,ROUND(N33/R33,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O34" s="28">
+      <c r="O34" s="30">
         <f>IF(R33=0,0,ROUND(O33/R33,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P34" s="26">
+      <c r="P34" s="28">
         <f>IF(R33=0,0,ROUND(P33/R33,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="29">
+      <c r="Q34" s="31">
         <f>IF(R33=0,0,ROUND(Q33/R33,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R34" s="20">
+      <c r="R34" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S34" s="21">
+      <c r="S34" s="23">
         <f>(B34+D34+F34+H34+J34+N34)</f>
         <v>0</v>
       </c>
-      <c r="T34" s="21">
+      <c r="T34" s="23">
         <f>(C34+E34+G34+I34+K34+O34)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A35" s="16" t="s">
+    <row r="35" spans="1:21" s="8" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A35" s="18" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="6"/>
@@ -6320,105 +6339,106 @@
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
-      <c r="O35" s="25"/>
+      <c r="O35" s="27"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="5"/>
-      <c r="R35" s="20">
+      <c r="R35" s="22">
         <f t="shared" ref="R35:R40" si="3">SUM(B35:Q35)/2</f>
         <v>0</v>
       </c>
-      <c r="S35" s="22">
+      <c r="S35" s="24">
         <f>B35+D35+F35+H35+J35+L35+N35</f>
         <v>0</v>
       </c>
-      <c r="T35" s="22">
+      <c r="T35" s="24">
         <f>C35+E35+G35+I35+K35+M35+O35</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" s="30" t="s">
+      <c r="U35" s="14"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="26">
+      <c r="B36" s="28">
         <f>IF(R35=0,0,ROUND(B35/R35,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C36" s="28">
         <f>IF(R35=0,0,ROUND(C35/R35,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D36" s="26">
+      <c r="D36" s="28">
         <f>IF(R35=0,0,ROUND(D35/R35,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E36" s="26">
+      <c r="E36" s="28">
         <f>IF(R35=0,0,ROUND(E35/R35,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F36" s="26">
+      <c r="F36" s="28">
         <f>IF(R35=0,0,ROUND(F35/R35,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G36" s="26">
+      <c r="G36" s="28">
         <f>IF(R35=0,0,ROUND(G35/R35,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H36" s="26">
+      <c r="H36" s="28">
         <f>IF(R35=0,0,ROUND(H35/R35,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I36" s="26">
+      <c r="I36" s="28">
         <f>IF(R35=0,0,ROUND(I35/R35,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J36" s="26">
+      <c r="J36" s="28">
         <f>IF(R35=0,0,ROUND(J35/R35,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K36" s="26">
+      <c r="K36" s="28">
         <f>IF(R35=0,0,ROUND(K35/R35,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L36" s="27">
+      <c r="L36" s="29">
         <f>IF(R35=0,0,ROUND(L35/R35,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M36" s="27">
+      <c r="M36" s="29">
         <f>IF(R35=0,0,ROUND(M35/R35,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N36" s="26">
+      <c r="N36" s="28">
         <f>IF(R35=0,0,ROUND(N35/R35,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O36" s="28">
+      <c r="O36" s="30">
         <f>IF(R35=0,0,ROUND(O35/R35,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P36" s="26">
+      <c r="P36" s="28">
         <f>IF(R35=0,0,ROUND(P35/R35,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="29">
+      <c r="Q36" s="31">
         <f>IF(R35=0,0,ROUND(Q35/R35,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R36" s="20">
+      <c r="R36" s="22">
         <f>SUM(B36:Q36)/2</f>
         <v>0</v>
       </c>
-      <c r="S36" s="21">
+      <c r="S36" s="23">
         <f>(B36+D36+F36+H36+J36+N36)</f>
         <v>0</v>
       </c>
-      <c r="T36" s="21">
+      <c r="T36" s="23">
         <f>(C36+E36+G36+I36+K36+O36)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A37" s="16" t="s">
+    <row r="37" spans="1:21" s="8" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A37" s="18" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="6"/>
@@ -6434,105 +6454,106 @@
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
-      <c r="O37" s="25"/>
+      <c r="O37" s="27"/>
       <c r="P37" s="6"/>
       <c r="Q37" s="5"/>
-      <c r="R37" s="20">
+      <c r="R37" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S37" s="22">
+      <c r="S37" s="24">
         <f>B37+D37+F37+H37+J37+L37+N37</f>
         <v>0</v>
       </c>
-      <c r="T37" s="22">
+      <c r="T37" s="24">
         <f>C37+E37+G37+I37+K37+M37+O37</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:20">
-      <c r="A38" s="30" t="s">
+      <c r="U37" s="14"/>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="26">
+      <c r="B38" s="28">
         <f>IF(R37=0,0,ROUND(B37/R37,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C38" s="26">
+      <c r="C38" s="28">
         <f>IF(R37=0,0,ROUND(C37/R37,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D38" s="26">
+      <c r="D38" s="28">
         <f>IF(R37=0,0,ROUND(D37/R37,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E38" s="26">
+      <c r="E38" s="28">
         <f>IF(R37=0,0,ROUND(E37/R37,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F38" s="26">
+      <c r="F38" s="28">
         <f>IF(R37=0,0,ROUND(F37/R37,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G38" s="26">
+      <c r="G38" s="28">
         <f>IF(R37=0,0,ROUND(G37/R37,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H38" s="26">
+      <c r="H38" s="28">
         <f>IF(R37=0,0,ROUND(H37/R37,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I38" s="26">
+      <c r="I38" s="28">
         <f>IF(R37=0,0,ROUND(I37/R37,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J38" s="26">
+      <c r="J38" s="28">
         <f>IF(R37=0,0,ROUND(J37/R37,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K38" s="26">
+      <c r="K38" s="28">
         <f>IF(R37=0,0,ROUND(K37/R37,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L38" s="27">
+      <c r="L38" s="29">
         <f>IF(R37=0,0,ROUND(L37/R37,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M38" s="27">
+      <c r="M38" s="29">
         <f>IF(R37=0,0,ROUND(M37/R37,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N38" s="26">
+      <c r="N38" s="28">
         <f>IF(R37=0,0,ROUND(N37/R37,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O38" s="28">
+      <c r="O38" s="30">
         <f>IF(R37=0,0,ROUND(O37/R37,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P38" s="26">
+      <c r="P38" s="28">
         <f>IF(R37=0,0,ROUND(P37/R37,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="29">
+      <c r="Q38" s="31">
         <f>IF(R37=0,0,ROUND(Q37/R37,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R38" s="20">
+      <c r="R38" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S38" s="21">
+      <c r="S38" s="23">
         <f>(B38+D38+F38+H38+J38+N38)</f>
         <v>0</v>
       </c>
-      <c r="T38" s="21">
+      <c r="T38" s="23">
         <f>(C38+E38+G38+I38+K38+O38)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A39" s="16" t="s">
+    <row r="39" spans="1:21" s="8" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A39" s="18" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="6"/>
@@ -6548,105 +6569,106 @@
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
-      <c r="O39" s="25"/>
+      <c r="O39" s="27"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="5"/>
-      <c r="R39" s="20">
+      <c r="R39" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S39" s="22">
+      <c r="S39" s="24">
         <f>B39+D39+F39+H39+J39+L39+N39</f>
         <v>0</v>
       </c>
-      <c r="T39" s="22">
+      <c r="T39" s="24">
         <f>C39+E39+G39+I39+K39+M39+O39</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:20">
-      <c r="A40" s="30" t="s">
+      <c r="U39" s="14"/>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="26">
+      <c r="B40" s="28">
         <f>IF(R39=0,0,ROUND(B39/R39,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C40" s="26">
+      <c r="C40" s="28">
         <f>IF(R39=0,0,ROUND(C39/R39,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D40" s="26">
+      <c r="D40" s="28">
         <f>IF(R39=0,0,ROUND(D39/R39,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E40" s="26">
+      <c r="E40" s="28">
         <f>IF(R39=0,0,ROUND(E39/R39,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F40" s="26">
+      <c r="F40" s="28">
         <f>IF(R39=0,0,ROUND(F39/R39,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G40" s="26">
+      <c r="G40" s="28">
         <f>IF(R39=0,0,ROUND(G39/R39,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H40" s="26">
+      <c r="H40" s="28">
         <f>IF(R39=0,0,ROUND(H39/R39,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I40" s="26">
+      <c r="I40" s="28">
         <f>IF(R39=0,0,ROUND(I39/R39,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J40" s="26">
+      <c r="J40" s="28">
         <f>IF(R39=0,0,ROUND(J39/R39,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K40" s="26">
+      <c r="K40" s="28">
         <f>IF(R39=0,0,ROUND(K39/R39,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L40" s="27">
+      <c r="L40" s="29">
         <f>IF(R39=0,0,ROUND(L39/R39,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M40" s="27">
+      <c r="M40" s="29">
         <f>IF(R39=0,0,ROUND(M39/R39,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N40" s="26">
+      <c r="N40" s="28">
         <f>IF(R39=0,0,ROUND(N39/R39,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O40" s="28">
+      <c r="O40" s="30">
         <f>IF(R39=0,0,ROUND(O39/R39,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P40" s="26">
+      <c r="P40" s="28">
         <f>IF(R39=0,0,ROUND(P39/R39,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="29">
+      <c r="Q40" s="31">
         <f>IF(R39=0,0,ROUND(Q39/R39,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R40" s="20">
+      <c r="R40" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S40" s="21">
+      <c r="S40" s="23">
         <f>(B40+D40+F40+H40+J40+N40)</f>
         <v>0</v>
       </c>
-      <c r="T40" s="21">
+      <c r="T40" s="23">
         <f>(C40+E40+G40+I40+K40+O40)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A41" s="16" t="s">
+    <row r="41" spans="1:21" s="8" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A41" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B41" s="6"/>
@@ -6662,105 +6684,106 @@
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
-      <c r="O41" s="25"/>
+      <c r="O41" s="27"/>
       <c r="P41" s="6"/>
       <c r="Q41" s="5"/>
-      <c r="R41" s="20">
+      <c r="R41" s="22">
         <f t="shared" ref="R41:R48" si="4">SUM(B41:Q41)/2</f>
         <v>0</v>
       </c>
-      <c r="S41" s="22">
+      <c r="S41" s="24">
         <f>B41+D41+F41+H41+J41+L41+N41</f>
         <v>0</v>
       </c>
-      <c r="T41" s="22">
+      <c r="T41" s="24">
         <f>C41+E41+G41+I41+K41+M41+O41</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:20">
-      <c r="A42" s="30" t="s">
+      <c r="U41" s="14"/>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="26">
+      <c r="B42" s="28">
         <f>IF(R41=0,0,ROUND(B41/R41,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C42" s="26">
+      <c r="C42" s="28">
         <f>IF(R41=0,0,ROUND(C41/R41,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D42" s="26">
+      <c r="D42" s="28">
         <f>IF(R41=0,0,ROUND(D41/R41,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E42" s="26">
+      <c r="E42" s="28">
         <f>IF(R41=0,0,ROUND(E41/R41,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F42" s="26">
+      <c r="F42" s="28">
         <f>IF(R41=0,0,ROUND(F41/R41,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G42" s="26">
+      <c r="G42" s="28">
         <f>IF(R41=0,0,ROUND(G41/R41,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H42" s="26">
+      <c r="H42" s="28">
         <f>IF(R41=0,0,ROUND(H41/R41,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I42" s="26">
+      <c r="I42" s="28">
         <f>IF(R41=0,0,ROUND(I41/R41,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J42" s="26">
+      <c r="J42" s="28">
         <f>IF(R41=0,0,ROUND(J41/R41,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K42" s="26">
+      <c r="K42" s="28">
         <f>IF(R41=0,0,ROUND(K41/R41,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L42" s="27">
+      <c r="L42" s="29">
         <f>IF(R41=0,0,ROUND(L41/R41,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M42" s="27">
+      <c r="M42" s="29">
         <f>IF(R41=0,0,ROUND(M41/R41,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N42" s="26">
+      <c r="N42" s="28">
         <f>IF(R41=0,0,ROUND(N41/R41,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O42" s="28">
+      <c r="O42" s="30">
         <f>IF(R41=0,0,ROUND(O41/R41,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P42" s="26">
+      <c r="P42" s="28">
         <f>IF(R41=0,0,ROUND(P41/R41,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q42" s="29">
+      <c r="Q42" s="31">
         <f>IF(R41=0,0,ROUND(Q41/R41,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R42" s="20">
+      <c r="R42" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S42" s="21">
+      <c r="S42" s="23">
         <f>(B42+D42+F42+H42+J42+N42)</f>
         <v>0</v>
       </c>
-      <c r="T42" s="21">
+      <c r="T42" s="23">
         <f>(C42+E42+G42+I42+K42+O42)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A43" s="16" t="s">
+    <row r="43" spans="1:21" s="8" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A43" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B43" s="6"/>
@@ -6776,105 +6799,106 @@
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
-      <c r="O43" s="25"/>
+      <c r="O43" s="27"/>
       <c r="P43" s="6"/>
       <c r="Q43" s="5"/>
-      <c r="R43" s="20">
+      <c r="R43" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S43" s="22">
+      <c r="S43" s="24">
         <f>B43+D43+F43+H43+J43+L43+N43</f>
         <v>0</v>
       </c>
-      <c r="T43" s="22">
+      <c r="T43" s="24">
         <f>C43+E43+G43+I43+K43+M43+O43</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:20">
-      <c r="A44" s="30" t="s">
+      <c r="U43" s="14"/>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B44" s="26">
+      <c r="B44" s="28">
         <f>IF(R43=0,0,ROUND(B43/R43,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C44" s="26">
+      <c r="C44" s="28">
         <f>IF(R43=0,0,ROUND(C43/R43,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D44" s="26">
+      <c r="D44" s="28">
         <f>IF(R43=0,0,ROUND(D43/R43,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E44" s="26">
+      <c r="E44" s="28">
         <f>IF(R43=0,0,ROUND(E43/R43,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F44" s="26">
+      <c r="F44" s="28">
         <f>IF(R43=0,0,ROUND(F43/R43,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G44" s="26">
+      <c r="G44" s="28">
         <f>IF(R43=0,0,ROUND(G43/R43,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H44" s="26">
+      <c r="H44" s="28">
         <f>IF(R43=0,0,ROUND(H43/R43,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I44" s="26">
+      <c r="I44" s="28">
         <f>IF(R43=0,0,ROUND(I43/R43,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J44" s="26">
+      <c r="J44" s="28">
         <f>IF(R43=0,0,ROUND(J43/R43,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K44" s="26">
+      <c r="K44" s="28">
         <f>IF(R43=0,0,ROUND(K43/R43,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L44" s="27">
+      <c r="L44" s="29">
         <f>IF(R43=0,0,ROUND(L43/R43,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M44" s="27">
+      <c r="M44" s="29">
         <f>IF(R43=0,0,ROUND(M43/R43,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N44" s="26">
+      <c r="N44" s="28">
         <f>IF(R43=0,0,ROUND(N43/R43,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O44" s="28">
+      <c r="O44" s="30">
         <f>IF(R43=0,0,ROUND(O43/R43,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P44" s="26">
+      <c r="P44" s="28">
         <f>IF(R43=0,0,ROUND(P43/R43,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="29">
+      <c r="Q44" s="31">
         <f>IF(R43=0,0,ROUND(Q43/R43,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R44" s="20">
+      <c r="R44" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S44" s="21">
+      <c r="S44" s="23">
         <f>(B44+D44+F44+H44+J44+N44)</f>
         <v>0</v>
       </c>
-      <c r="T44" s="21">
+      <c r="T44" s="23">
         <f>(C44+E44+G44+I44+K44+O44)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A45" s="16" t="s">
+    <row r="45" spans="1:21" s="8" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A45" s="18" t="s">
         <v>40</v>
       </c>
       <c r="B45" s="6"/>
@@ -6890,105 +6914,106 @@
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
-      <c r="O45" s="25"/>
+      <c r="O45" s="27"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="5"/>
-      <c r="R45" s="20">
+      <c r="R45" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S45" s="22">
+      <c r="S45" s="24">
         <f>B45+D45+F45+H45+J45+L45+N45</f>
         <v>0</v>
       </c>
-      <c r="T45" s="22">
+      <c r="T45" s="24">
         <f>C45+E45+G45+I45+K45+M45+O45</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:20">
-      <c r="A46" s="30" t="s">
+      <c r="U45" s="14"/>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B46" s="26">
+      <c r="B46" s="28">
         <f>IF(R45=0,0,ROUND(B45/R45,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C46" s="26">
+      <c r="C46" s="28">
         <f>IF(R45=0,0,ROUND(C45/R45,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D46" s="26">
+      <c r="D46" s="28">
         <f>IF(R45=0,0,ROUND(D45/R45,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E46" s="26">
+      <c r="E46" s="28">
         <f>IF(R45=0,0,ROUND(E45/R45,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F46" s="26">
+      <c r="F46" s="28">
         <f>IF(R45=0,0,ROUND(F45/R45,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G46" s="26">
+      <c r="G46" s="28">
         <f>IF(R45=0,0,ROUND(G45/R45,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H46" s="26">
+      <c r="H46" s="28">
         <f>IF(R45=0,0,ROUND(H45/R45,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I46" s="26">
+      <c r="I46" s="28">
         <f>IF(R45=0,0,ROUND(I45/R45,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J46" s="26">
+      <c r="J46" s="28">
         <f>IF(R45=0,0,ROUND(J45/R45,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K46" s="26">
+      <c r="K46" s="28">
         <f>IF(R45=0,0,ROUND(K45/R45,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L46" s="27">
+      <c r="L46" s="29">
         <f>IF(R45=0,0,ROUND(L45/R45,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M46" s="27">
+      <c r="M46" s="29">
         <f>IF(R45=0,0,ROUND(M45/R45,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N46" s="26">
+      <c r="N46" s="28">
         <f>IF(R45=0,0,ROUND(N45/R45,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O46" s="28">
+      <c r="O46" s="30">
         <f>IF(R45=0,0,ROUND(O45/R45,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P46" s="26">
+      <c r="P46" s="28">
         <f>IF(R45=0,0,ROUND(P45/R45,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q46" s="29">
+      <c r="Q46" s="31">
         <f>IF(R45=0,0,ROUND(Q45/R45,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R46" s="20">
+      <c r="R46" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S46" s="21">
+      <c r="S46" s="23">
         <f>(B46+D46+F46+H46+J46+N46)</f>
         <v>0</v>
       </c>
-      <c r="T46" s="21">
+      <c r="T46" s="23">
         <f>(C46+E46+G46+I46+K46+O46)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A47" s="16" t="s">
+    <row r="47" spans="1:21" s="8" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A47" s="18" t="s">
         <v>41</v>
       </c>
       <c r="B47" s="6"/>
@@ -7004,105 +7029,106 @@
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
-      <c r="O47" s="25"/>
+      <c r="O47" s="27"/>
       <c r="P47" s="6"/>
       <c r="Q47" s="5"/>
-      <c r="R47" s="20">
+      <c r="R47" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S47" s="22">
+      <c r="S47" s="24">
         <f>B47+D47+F47+H47+J47+L47+N47</f>
         <v>0</v>
       </c>
-      <c r="T47" s="22">
+      <c r="T47" s="24">
         <f>C47+E47+G47+I47+K47+M47+O47</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:20">
-      <c r="A48" s="30" t="s">
+      <c r="U47" s="14"/>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="26">
+      <c r="B48" s="28">
         <f>IF(R47=0,0,ROUND(B47/R47,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C48" s="26">
+      <c r="C48" s="28">
         <f>IF(R47=0,0,ROUND(C47/R47,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D48" s="26">
+      <c r="D48" s="28">
         <f>IF(R47=0,0,ROUND(D47/R47,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E48" s="26">
+      <c r="E48" s="28">
         <f>IF(R47=0,0,ROUND(E47/R47,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F48" s="26">
+      <c r="F48" s="28">
         <f>IF(R47=0,0,ROUND(F47/R47,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G48" s="26">
+      <c r="G48" s="28">
         <f>IF(R47=0,0,ROUND(G47/R47,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H48" s="26">
+      <c r="H48" s="28">
         <f>IF(R47=0,0,ROUND(H47/R47,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I48" s="26">
+      <c r="I48" s="28">
         <f>IF(R47=0,0,ROUND(I47/R47,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J48" s="26">
+      <c r="J48" s="28">
         <f>IF(R47=0,0,ROUND(J47/R47,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K48" s="26">
+      <c r="K48" s="28">
         <f>IF(R47=0,0,ROUND(K47/R47,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L48" s="27">
+      <c r="L48" s="29">
         <f>IF(R47=0,0,ROUND(L47/R47,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M48" s="27">
+      <c r="M48" s="29">
         <f>IF(R47=0,0,ROUND(M47/R47,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N48" s="26">
+      <c r="N48" s="28">
         <f>IF(R47=0,0,ROUND(N47/R47,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O48" s="28">
+      <c r="O48" s="30">
         <f>IF(R47=0,0,ROUND(O47/R47,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P48" s="26">
+      <c r="P48" s="28">
         <f>IF(R47=0,0,ROUND(P47/R47,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q48" s="29">
+      <c r="Q48" s="31">
         <f>IF(R47=0,0,ROUND(Q47/R47,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R48" s="20">
+      <c r="R48" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S48" s="21">
+      <c r="S48" s="23">
         <f>(B48+D48+F48+H48+J48+N48)</f>
         <v>0</v>
       </c>
-      <c r="T48" s="21">
+      <c r="T48" s="23">
         <f>(C48+E48+G48+I48+K48+O48)</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:21">
-      <c r="A49" s="34"/>
+      <c r="A49" s="36"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -7116,24 +7142,24 @@
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
-      <c r="O49" s="25"/>
+      <c r="O49" s="27"/>
       <c r="P49" s="4"/>
       <c r="Q49" s="5"/>
-      <c r="R49" s="20">
+      <c r="R49" s="22">
         <f>SUM(B49:Q49)/2</f>
         <v>0</v>
       </c>
-      <c r="S49" s="22">
+      <c r="S49" s="24">
         <f t="shared" ref="S49:T51" si="5">B49+D49+F49+H49+J49+L49+N49</f>
         <v>0</v>
       </c>
-      <c r="T49" s="22">
+      <c r="T49" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:21">
-      <c r="A50" s="34"/>
+      <c r="A50" s="36"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -7147,24 +7173,24 @@
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
-      <c r="O50" s="25"/>
+      <c r="O50" s="27"/>
       <c r="P50" s="4"/>
       <c r="Q50" s="5"/>
-      <c r="R50" s="20">
+      <c r="R50" s="22">
         <f>SUM(B50:Q50)/2</f>
         <v>0</v>
       </c>
-      <c r="S50" s="22">
+      <c r="S50" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T50" s="22">
+      <c r="T50" s="24">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:21">
-      <c r="A51" s="35"/>
+      <c r="A51" s="37"/>
       <c r="B51" s="4">
         <f t="shared" ref="B51:O51" si="6">SUM(B25:B50)</f>
         <v>0</v>
@@ -7217,7 +7243,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O51" s="25">
+      <c r="O51" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -7229,105 +7255,105 @@
         <f>SUM(Q25:Q50)</f>
         <v>0</v>
       </c>
-      <c r="R51" s="20">
+      <c r="R51" s="22">
         <f>SUM(B51:Q51)/2</f>
         <v>0</v>
       </c>
-      <c r="S51" s="23">
+      <c r="S51" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T51" s="23">
+      <c r="T51" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="17.25" thickBot="1">
-      <c r="A52" s="36" t="s">
+      <c r="A52" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B52" s="37">
+      <c r="B52" s="39">
         <f>IF(R51=0,0,ROUND(B51/R51,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C52" s="37">
+      <c r="C52" s="39">
         <f>IF(R51=0,0,ROUND(C51/R51,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D52" s="37">
+      <c r="D52" s="39">
         <f>IF(R51=0,0,ROUND(D51/R51,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E52" s="37">
+      <c r="E52" s="39">
         <f>IF(R51=0,0,ROUND(E51/R51,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F52" s="37">
+      <c r="F52" s="39">
         <f>IF(R51=0,0,ROUND(F51/R51,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G52" s="37">
+      <c r="G52" s="39">
         <f>IF(R51=0,0,ROUND(G51/R51,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H52" s="37">
+      <c r="H52" s="39">
         <f>IF(R51=0,0,ROUND(H51/R51,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I52" s="37">
+      <c r="I52" s="39">
         <f>IF(R51=0,0,ROUND(I51/R51,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J52" s="37">
+      <c r="J52" s="39">
         <f>IF(R51=0,0,ROUND(J51/R51,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K52" s="37">
+      <c r="K52" s="39">
         <f>IF(R51=0,0,ROUND(K51/R51,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L52" s="38">
+      <c r="L52" s="40">
         <f xml:space="preserve"> 100 - B52 - D52 - F52 - H52 - J52 - N52 - P52</f>
         <v>100</v>
       </c>
-      <c r="M52" s="38">
+      <c r="M52" s="40">
         <f>100 - C52 - E52 - G52 - I52 - K52 - O52 - Q52</f>
         <v>100</v>
       </c>
-      <c r="N52" s="37">
+      <c r="N52" s="39">
         <f>IF(R51=0,0,ROUND(N51/R51,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O52" s="39">
+      <c r="O52" s="41">
         <f>IF(R51=0,0,ROUND(O51/R51,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P52" s="37">
+      <c r="P52" s="39">
         <f>IF(T51=0,0,ROUND(P51/T51,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q52" s="40">
+      <c r="Q52" s="42">
         <f>IF(T51=0,0,ROUND(Q51/T51,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R52" s="20">
+      <c r="R52" s="22">
         <f>SUM(B52:Q52)/2</f>
         <v>100</v>
       </c>
-      <c r="S52" s="21">
+      <c r="S52" s="23">
         <f>(B52+D52+F52+H52+J52+N52)</f>
         <v>0</v>
       </c>
-      <c r="T52" s="21">
+      <c r="T52" s="23">
         <f>(C52+E52+G52+I52+K52+O52)</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:21">
-      <c r="R53" s="12"/>
+      <c r="R53" s="14"/>
     </row>
     <row r="56" spans="1:21">
-      <c r="U56" s="12" t="s">
+      <c r="U56" s="14" t="s">
         <v>43</v>
       </c>
     </row>
@@ -7395,617 +7421,617 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="33" customWidth="1"/>
+    <col min="1" max="1" width="9" style="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="15">
+      <c r="C1" s="17">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="14">
+      <c r="A2" s="34"/>
+      <c r="B2" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="32"/>
-      <c r="B3" s="14">
+      <c r="A3" s="34"/>
+      <c r="B3" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="32"/>
-      <c r="B4" s="14">
+      <c r="A4" s="34"/>
+      <c r="B4" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="14">
+      <c r="A5" s="34"/>
+      <c r="B5" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="32"/>
-      <c r="B6" s="14">
+      <c r="A6" s="34"/>
+      <c r="B6" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="32"/>
-      <c r="B7" s="14">
+      <c r="A7" s="34"/>
+      <c r="B7" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="32"/>
-      <c r="B8" s="14">
+      <c r="A8" s="34"/>
+      <c r="B8" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="32"/>
-      <c r="B9" s="14">
+      <c r="A9" s="34"/>
+      <c r="B9" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="32"/>
-      <c r="B10" s="14">
+      <c r="A10" s="34"/>
+      <c r="B10" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="32"/>
-      <c r="B11" s="14">
+      <c r="A11" s="34"/>
+      <c r="B11" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="32"/>
-      <c r="B12" s="14">
+      <c r="A12" s="34"/>
+      <c r="B12" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="32"/>
-      <c r="B13" s="14">
+      <c r="A13" s="34"/>
+      <c r="B13" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="32"/>
-      <c r="B14" s="14">
+      <c r="A14" s="34"/>
+      <c r="B14" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="14">
+      <c r="A15" s="34"/>
+      <c r="B15" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="32"/>
-      <c r="B16" s="14">
+      <c r="A16" s="34"/>
+      <c r="B16" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="32"/>
-      <c r="B17" s="14">
+      <c r="A17" s="34"/>
+      <c r="B17" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="32"/>
-      <c r="B18" s="14">
+      <c r="A18" s="34"/>
+      <c r="B18" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="32"/>
-      <c r="B19" s="14">
+      <c r="A19" s="34"/>
+      <c r="B19" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="32"/>
-      <c r="B20" s="14">
+      <c r="A20" s="34"/>
+      <c r="B20" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="32"/>
-      <c r="B21" s="14">
+      <c r="A21" s="34"/>
+      <c r="B21" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="32"/>
-      <c r="B22" s="14">
+      <c r="A22" s="34"/>
+      <c r="B22" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="32"/>
-      <c r="B23" s="14">
+      <c r="A23" s="34"/>
+      <c r="B23" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="32"/>
-      <c r="B24" s="14">
+      <c r="A24" s="34"/>
+      <c r="B24" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="32"/>
-      <c r="B25" s="14">
+      <c r="A25" s="34"/>
+      <c r="B25" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="32"/>
-      <c r="B26" s="14">
+      <c r="A26" s="34"/>
+      <c r="B26" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="32"/>
-      <c r="B27" s="14">
+      <c r="A27" s="34"/>
+      <c r="B27" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="32"/>
-      <c r="B28" s="14">
+      <c r="A28" s="34"/>
+      <c r="B28" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="32"/>
-      <c r="B29" s="14">
+      <c r="A29" s="34"/>
+      <c r="B29" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="32"/>
-      <c r="B30" s="14">
+      <c r="A30" s="34"/>
+      <c r="B30" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="32"/>
-      <c r="B31" s="14">
+      <c r="A31" s="34"/>
+      <c r="B31" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="32"/>
-      <c r="B32" s="14">
+      <c r="A32" s="34"/>
+      <c r="B32" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="32"/>
-      <c r="B33" s="14">
+      <c r="A33" s="34"/>
+      <c r="B33" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="32"/>
-      <c r="B34" s="14">
+      <c r="A34" s="34"/>
+      <c r="B34" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="32"/>
-      <c r="B35" s="14">
+      <c r="A35" s="34"/>
+      <c r="B35" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="32"/>
-      <c r="B36" s="14">
+      <c r="A36" s="34"/>
+      <c r="B36" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="32"/>
-      <c r="B37" s="14">
+      <c r="A37" s="34"/>
+      <c r="B37" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="32"/>
-      <c r="B38" s="14">
+      <c r="A38" s="34"/>
+      <c r="B38" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="32"/>
-      <c r="B39" s="14">
+      <c r="A39" s="34"/>
+      <c r="B39" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="32"/>
-      <c r="B40" s="14">
+      <c r="A40" s="34"/>
+      <c r="B40" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="32"/>
-      <c r="B41" s="14">
+      <c r="A41" s="34"/>
+      <c r="B41" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="32"/>
-      <c r="B42" s="14">
+      <c r="A42" s="34"/>
+      <c r="B42" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="32"/>
-      <c r="B43" s="14">
+      <c r="A43" s="34"/>
+      <c r="B43" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="32"/>
-      <c r="B44" s="14">
+      <c r="A44" s="34"/>
+      <c r="B44" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="32"/>
-      <c r="B45" s="14">
+      <c r="A45" s="34"/>
+      <c r="B45" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="32"/>
-      <c r="B46" s="14">
+      <c r="A46" s="34"/>
+      <c r="B46" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="32"/>
-      <c r="B47" s="14">
+      <c r="A47" s="34"/>
+      <c r="B47" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="32"/>
-      <c r="B48" s="14">
+      <c r="A48" s="34"/>
+      <c r="B48" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="32"/>
-      <c r="B49" s="14">
+      <c r="A49" s="34"/>
+      <c r="B49" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="32"/>
-      <c r="B50" s="14">
+      <c r="A50" s="34"/>
+      <c r="B50" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="32"/>
-      <c r="B51" s="14">
+      <c r="A51" s="34"/>
+      <c r="B51" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="32"/>
-      <c r="B52" s="14">
+      <c r="A52" s="34"/>
+      <c r="B52" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="32"/>
-      <c r="B53" s="14">
+      <c r="A53" s="34"/>
+      <c r="B53" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="32"/>
-      <c r="B54" s="14">
+      <c r="A54" s="34"/>
+      <c r="B54" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="32"/>
-      <c r="B55" s="14">
+      <c r="A55" s="34"/>
+      <c r="B55" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="32"/>
-      <c r="B56" s="14">
+      <c r="A56" s="34"/>
+      <c r="B56" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="32"/>
-      <c r="B57" s="14">
+      <c r="A57" s="34"/>
+      <c r="B57" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="32"/>
-      <c r="B58" s="14">
+      <c r="A58" s="34"/>
+      <c r="B58" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="32"/>
-      <c r="B59" s="14">
+      <c r="A59" s="34"/>
+      <c r="B59" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="32"/>
-      <c r="B60" s="14">
+      <c r="A60" s="34"/>
+      <c r="B60" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="32"/>
-      <c r="B61" s="14">
+      <c r="A61" s="34"/>
+      <c r="B61" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="32"/>
-      <c r="B62" s="14">
+      <c r="A62" s="34"/>
+      <c r="B62" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="32"/>
-      <c r="B63" s="14">
+      <c r="A63" s="34"/>
+      <c r="B63" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="32"/>
-      <c r="B64" s="14">
+      <c r="A64" s="34"/>
+      <c r="B64" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="32"/>
-      <c r="B65" s="14">
+      <c r="A65" s="34"/>
+      <c r="B65" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="32"/>
-      <c r="B66" s="14">
+      <c r="A66" s="34"/>
+      <c r="B66" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="31"/>
-      <c r="B67" s="14">
+      <c r="A67" s="33"/>
+      <c r="B67" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="31"/>
-      <c r="B68" s="14">
+      <c r="A68" s="33"/>
+      <c r="B68" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="31"/>
-      <c r="B69" s="14">
+      <c r="A69" s="33"/>
+      <c r="B69" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="31"/>
-      <c r="B70" s="14">
+      <c r="A70" s="33"/>
+      <c r="B70" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="31"/>
-      <c r="B71" s="14">
+      <c r="A71" s="33"/>
+      <c r="B71" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="31"/>
-      <c r="B72" s="14">
+      <c r="A72" s="33"/>
+      <c r="B72" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="31"/>
-      <c r="B73" s="14">
+      <c r="A73" s="33"/>
+      <c r="B73" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="31"/>
-      <c r="B74" s="14">
+      <c r="A74" s="33"/>
+      <c r="B74" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="31"/>
-      <c r="B75" s="14">
+      <c r="A75" s="33"/>
+      <c r="B75" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="31"/>
-      <c r="B76" s="14">
+      <c r="A76" s="33"/>
+      <c r="B76" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="31"/>
-      <c r="B77" s="14">
+      <c r="A77" s="33"/>
+      <c r="B77" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="31"/>
-      <c r="B78" s="14">
+      <c r="A78" s="33"/>
+      <c r="B78" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="31"/>
-      <c r="B79" s="14">
+      <c r="A79" s="33"/>
+      <c r="B79" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="31"/>
-      <c r="B80" s="14">
+      <c r="A80" s="33"/>
+      <c r="B80" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="31"/>
-      <c r="B81" s="14">
+      <c r="A81" s="33"/>
+      <c r="B81" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="31"/>
-      <c r="B82" s="14">
+      <c r="A82" s="33"/>
+      <c r="B82" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="31"/>
-      <c r="B83" s="14">
+      <c r="A83" s="33"/>
+      <c r="B83" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="31"/>
-      <c r="B84" s="14">
+      <c r="A84" s="33"/>
+      <c r="B84" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="31"/>
-      <c r="B85" s="14">
+      <c r="A85" s="33"/>
+      <c r="B85" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="31"/>
-      <c r="B86" s="14">
+      <c r="A86" s="33"/>
+      <c r="B86" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="31"/>
-      <c r="B87" s="14">
+      <c r="A87" s="33"/>
+      <c r="B87" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="31"/>
-      <c r="B88" s="14">
+      <c r="A88" s="33"/>
+      <c r="B88" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="31"/>
-      <c r="B89" s="14">
+      <c r="A89" s="33"/>
+      <c r="B89" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="31"/>
-      <c r="B90" s="14">
+      <c r="A90" s="33"/>
+      <c r="B90" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="31"/>
-      <c r="B91" s="14">
+      <c r="A91" s="33"/>
+      <c r="B91" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="31"/>
-      <c r="B92" s="14">
+      <c r="A92" s="33"/>
+      <c r="B92" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="31"/>
-      <c r="B93" s="14">
+      <c r="A93" s="33"/>
+      <c r="B93" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="31"/>
-      <c r="B94" s="14">
+      <c r="A94" s="33"/>
+      <c r="B94" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="31"/>
-      <c r="B95" s="14">
+      <c r="A95" s="33"/>
+      <c r="B95" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="31"/>
-      <c r="B96" s="14">
+      <c r="A96" s="33"/>
+      <c r="B96" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="31"/>
-      <c r="B97" s="14">
+      <c r="A97" s="33"/>
+      <c r="B97" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="31"/>
-      <c r="B98" s="14">
+      <c r="A98" s="33"/>
+      <c r="B98" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="31"/>
-      <c r="B99" s="14">
+      <c r="A99" s="33"/>
+      <c r="B99" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="31"/>
-      <c r="B100" s="14">
+      <c r="A100" s="33"/>
+      <c r="B100" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="31"/>
-      <c r="B101" s="14">
+      <c r="A101" s="33"/>
+      <c r="B101" s="16">
         <v>0</v>
       </c>
     </row>

--- a/PhoenixCI/Excel_Template/30370.xlsx
+++ b/PhoenixCI/Excel_Template/30370.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\PB\CI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D653483-9558-43AB-ACA3-938B0FFC5AD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AF51754-34BD-4B4A-8AD5-8269555352EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="14895" windowHeight="8955"/>
+    <workbookView xWindow="13425" yWindow="6210" windowWidth="15375" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="30371" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -812,7 +813,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -835,28 +836,22 @@
     <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -1078,7 +1073,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-7C81-4D35-A857-C07F31D405EE}"/>
+                <c16:uniqueId val="{00000000-B109-40D6-A4CB-BBA48B98AF90}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1098,7 +1093,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-7C81-4D35-A857-C07F31D405EE}"/>
+                <c16:uniqueId val="{00000001-B109-40D6-A4CB-BBA48B98AF90}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1118,7 +1113,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-7C81-4D35-A857-C07F31D405EE}"/>
+                <c16:uniqueId val="{00000002-B109-40D6-A4CB-BBA48B98AF90}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1138,7 +1133,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-7C81-4D35-A857-C07F31D405EE}"/>
+                <c16:uniqueId val="{00000003-B109-40D6-A4CB-BBA48B98AF90}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1158,7 +1153,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-7C81-4D35-A857-C07F31D405EE}"/>
+                <c16:uniqueId val="{00000004-B109-40D6-A4CB-BBA48B98AF90}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1178,7 +1173,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-7C81-4D35-A857-C07F31D405EE}"/>
+                <c16:uniqueId val="{00000005-B109-40D6-A4CB-BBA48B98AF90}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1198,7 +1193,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-7C81-4D35-A857-C07F31D405EE}"/>
+                <c16:uniqueId val="{00000006-B109-40D6-A4CB-BBA48B98AF90}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1218,7 +1213,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-7C81-4D35-A857-C07F31D405EE}"/>
+                <c16:uniqueId val="{00000007-B109-40D6-A4CB-BBA48B98AF90}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1265,7 +1260,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-7C81-4D35-A857-C07F31D405EE}"/>
+                  <c16:uniqueId val="{00000000-B109-40D6-A4CB-BBA48B98AF90}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1311,7 +1306,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-7C81-4D35-A857-C07F31D405EE}"/>
+                  <c16:uniqueId val="{00000001-B109-40D6-A4CB-BBA48B98AF90}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1357,7 +1352,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-7C81-4D35-A857-C07F31D405EE}"/>
+                  <c16:uniqueId val="{00000002-B109-40D6-A4CB-BBA48B98AF90}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1403,7 +1398,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-7C81-4D35-A857-C07F31D405EE}"/>
+                  <c16:uniqueId val="{00000003-B109-40D6-A4CB-BBA48B98AF90}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1449,7 +1444,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-7C81-4D35-A857-C07F31D405EE}"/>
+                  <c16:uniqueId val="{00000004-B109-40D6-A4CB-BBA48B98AF90}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1495,7 +1490,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-7C81-4D35-A857-C07F31D405EE}"/>
+                  <c16:uniqueId val="{00000005-B109-40D6-A4CB-BBA48B98AF90}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1541,7 +1536,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-7C81-4D35-A857-C07F31D405EE}"/>
+                  <c16:uniqueId val="{00000006-B109-40D6-A4CB-BBA48B98AF90}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1587,7 +1582,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-7C81-4D35-A857-C07F31D405EE}"/>
+                  <c16:uniqueId val="{00000007-B109-40D6-A4CB-BBA48B98AF90}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1695,7 +1690,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-7C81-4D35-A857-C07F31D405EE}"/>
+              <c16:uniqueId val="{00000008-B109-40D6-A4CB-BBA48B98AF90}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1718,7 +1713,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-7C81-4D35-A857-C07F31D405EE}"/>
+                <c16:uniqueId val="{00000009-B109-40D6-A4CB-BBA48B98AF90}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1738,7 +1733,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000A-7C81-4D35-A857-C07F31D405EE}"/>
+                <c16:uniqueId val="{0000000A-B109-40D6-A4CB-BBA48B98AF90}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1758,7 +1753,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-7C81-4D35-A857-C07F31D405EE}"/>
+                <c16:uniqueId val="{0000000B-B109-40D6-A4CB-BBA48B98AF90}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1778,7 +1773,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000C-7C81-4D35-A857-C07F31D405EE}"/>
+                <c16:uniqueId val="{0000000C-B109-40D6-A4CB-BBA48B98AF90}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1798,7 +1793,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-7C81-4D35-A857-C07F31D405EE}"/>
+                <c16:uniqueId val="{0000000D-B109-40D6-A4CB-BBA48B98AF90}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1818,7 +1813,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000E-7C81-4D35-A857-C07F31D405EE}"/>
+                <c16:uniqueId val="{0000000E-B109-40D6-A4CB-BBA48B98AF90}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1838,7 +1833,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-7C81-4D35-A857-C07F31D405EE}"/>
+                <c16:uniqueId val="{0000000F-B109-40D6-A4CB-BBA48B98AF90}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1858,7 +1853,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000010-7C81-4D35-A857-C07F31D405EE}"/>
+                <c16:uniqueId val="{00000010-B109-40D6-A4CB-BBA48B98AF90}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1899,7 +1894,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-7C81-4D35-A857-C07F31D405EE}"/>
+                  <c16:uniqueId val="{00000009-B109-40D6-A4CB-BBA48B98AF90}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1939,7 +1934,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-7C81-4D35-A857-C07F31D405EE}"/>
+                  <c16:uniqueId val="{0000000A-B109-40D6-A4CB-BBA48B98AF90}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1979,7 +1974,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-7C81-4D35-A857-C07F31D405EE}"/>
+                  <c16:uniqueId val="{0000000B-B109-40D6-A4CB-BBA48B98AF90}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2019,7 +2014,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-7C81-4D35-A857-C07F31D405EE}"/>
+                  <c16:uniqueId val="{0000000C-B109-40D6-A4CB-BBA48B98AF90}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2059,7 +2054,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-7C81-4D35-A857-C07F31D405EE}"/>
+                  <c16:uniqueId val="{0000000D-B109-40D6-A4CB-BBA48B98AF90}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2099,7 +2094,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-7C81-4D35-A857-C07F31D405EE}"/>
+                  <c16:uniqueId val="{0000000E-B109-40D6-A4CB-BBA48B98AF90}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2139,7 +2134,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-7C81-4D35-A857-C07F31D405EE}"/>
+                  <c16:uniqueId val="{0000000F-B109-40D6-A4CB-BBA48B98AF90}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2179,7 +2174,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-7C81-4D35-A857-C07F31D405EE}"/>
+                  <c16:uniqueId val="{00000010-B109-40D6-A4CB-BBA48B98AF90}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2287,7 +2282,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-7C81-4D35-A857-C07F31D405EE}"/>
+              <c16:uniqueId val="{00000011-B109-40D6-A4CB-BBA48B98AF90}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2480,7 +2475,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-58A1-4448-BD9B-3B49C3146B3E}"/>
+                <c16:uniqueId val="{00000000-BFA3-4401-AEE3-DA25F5F51317}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2500,7 +2495,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-58A1-4448-BD9B-3B49C3146B3E}"/>
+                <c16:uniqueId val="{00000001-BFA3-4401-AEE3-DA25F5F51317}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2520,7 +2515,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-58A1-4448-BD9B-3B49C3146B3E}"/>
+                <c16:uniqueId val="{00000002-BFA3-4401-AEE3-DA25F5F51317}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2540,7 +2535,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-58A1-4448-BD9B-3B49C3146B3E}"/>
+                <c16:uniqueId val="{00000003-BFA3-4401-AEE3-DA25F5F51317}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2560,7 +2555,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-58A1-4448-BD9B-3B49C3146B3E}"/>
+                <c16:uniqueId val="{00000004-BFA3-4401-AEE3-DA25F5F51317}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2580,7 +2575,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-58A1-4448-BD9B-3B49C3146B3E}"/>
+                <c16:uniqueId val="{00000005-BFA3-4401-AEE3-DA25F5F51317}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2600,7 +2595,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-58A1-4448-BD9B-3B49C3146B3E}"/>
+                <c16:uniqueId val="{00000006-BFA3-4401-AEE3-DA25F5F51317}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2620,7 +2615,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-58A1-4448-BD9B-3B49C3146B3E}"/>
+                <c16:uniqueId val="{00000007-BFA3-4401-AEE3-DA25F5F51317}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2667,7 +2662,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-58A1-4448-BD9B-3B49C3146B3E}"/>
+                  <c16:uniqueId val="{00000000-BFA3-4401-AEE3-DA25F5F51317}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2713,7 +2708,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-58A1-4448-BD9B-3B49C3146B3E}"/>
+                  <c16:uniqueId val="{00000001-BFA3-4401-AEE3-DA25F5F51317}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2759,7 +2754,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-58A1-4448-BD9B-3B49C3146B3E}"/>
+                  <c16:uniqueId val="{00000002-BFA3-4401-AEE3-DA25F5F51317}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2805,7 +2800,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-58A1-4448-BD9B-3B49C3146B3E}"/>
+                  <c16:uniqueId val="{00000003-BFA3-4401-AEE3-DA25F5F51317}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2851,7 +2846,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-58A1-4448-BD9B-3B49C3146B3E}"/>
+                  <c16:uniqueId val="{00000004-BFA3-4401-AEE3-DA25F5F51317}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2897,7 +2892,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-58A1-4448-BD9B-3B49C3146B3E}"/>
+                  <c16:uniqueId val="{00000005-BFA3-4401-AEE3-DA25F5F51317}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2943,7 +2938,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-58A1-4448-BD9B-3B49C3146B3E}"/>
+                  <c16:uniqueId val="{00000006-BFA3-4401-AEE3-DA25F5F51317}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2989,7 +2984,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-58A1-4448-BD9B-3B49C3146B3E}"/>
+                  <c16:uniqueId val="{00000007-BFA3-4401-AEE3-DA25F5F51317}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3097,7 +3092,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-58A1-4448-BD9B-3B49C3146B3E}"/>
+              <c16:uniqueId val="{00000008-BFA3-4401-AEE3-DA25F5F51317}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3365,7 +3360,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{1261A34F-F47B-49FC-9650-9BABF0B2A148}</c15:txfldGUID>
+                      <c15:txfldGUID>{42036667-27BD-490A-A076-4EC41B634EDF}</c15:txfldGUID>
                       <c15:f>Data_30375!$B$101</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -3378,7 +3373,7 @@
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-047F-4554-89C5-58C7791F9B7E}"/>
+                  <c16:uniqueId val="{00000001-7E93-43E2-8FDF-5F630D23F8A2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3719,7 +3714,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-047F-4554-89C5-58C7791F9B7E}"/>
+              <c16:uniqueId val="{00000002-7E93-43E2-8FDF-5F630D23F8A2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3733,11 +3728,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="367223872"/>
+        <c:axId val="387939224"/>
         <c:axId val="1"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="367223872"/>
+        <c:axId val="387939224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3913,7 +3908,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="367223872"/>
+        <c:crossAx val="387939224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3992,7 +3987,7 @@
         <xdr:cNvPr id="22542" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B404BC34-704B-4570-9A66-E168237C300F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F577C64-EB60-48D0-B625-F394A3459D90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4035,7 +4030,7 @@
         <xdr:cNvPr id="21518" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57C9A473-BB4C-480E-A704-796B71537602}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A3D4872-09A2-4817-BB37-5E76ECDE7853}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4068,7 +4063,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0606C7-78FD-4E4F-AB07-90BA906B6091}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC7A3199-7927-4AD6-BDA8-013A54ED8DFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4441,7 +4436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="U56" sqref="U56"/>
     </sheetView>
   </sheetViews>
@@ -4459,101 +4454,101 @@
     <col min="10" max="10" width="7.25" style="1" customWidth="1"/>
     <col min="11" max="11" width="7.125" style="1" customWidth="1"/>
     <col min="12" max="17" width="8" style="1" customWidth="1"/>
-    <col min="18" max="18" width="3.375" style="19" customWidth="1"/>
-    <col min="19" max="19" width="3.25" style="19" customWidth="1"/>
-    <col min="20" max="20" width="3.125" style="19" customWidth="1"/>
-    <col min="21" max="21" width="8" style="14" customWidth="1"/>
+    <col min="18" max="18" width="3.375" style="17" customWidth="1"/>
+    <col min="19" max="19" width="3.25" style="17" customWidth="1"/>
+    <col min="20" max="20" width="3.125" style="17" customWidth="1"/>
+    <col min="21" max="21" width="8" style="12" customWidth="1"/>
     <col min="22" max="16384" width="8" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.2" customHeight="1" thickBot="1">
-      <c r="A1" s="14">
+    <row r="1" spans="1:20" ht="15.2" customHeight="1" thickBot="1">
+      <c r="A1" s="12">
         <v>34</v>
       </c>
-      <c r="B1" s="15">
+      <c r="B1" s="13">
         <v>2002</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="11" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.2" customHeight="1">
-      <c r="A2" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="49" t="s">
+    <row r="2" spans="1:20" ht="15.2" customHeight="1">
+      <c r="A2" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="43" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="51"/>
-      <c r="N2" s="43" t="s">
+      <c r="M2" s="49"/>
+      <c r="N2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="52"/>
-      <c r="P2" s="43" t="s">
+      <c r="O2" s="50"/>
+      <c r="P2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="20" t="s">
+      <c r="Q2" s="42"/>
+      <c r="R2" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.2" customHeight="1">
-      <c r="A3" s="48"/>
-      <c r="B3" s="54" t="s">
+    <row r="3" spans="1:20" ht="15.2" customHeight="1">
+      <c r="A3" s="46"/>
+      <c r="B3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="54" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="54" t="s">
+      <c r="E3" s="53"/>
+      <c r="F3" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="54" t="s">
+      <c r="G3" s="53"/>
+      <c r="H3" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="54" t="s">
+      <c r="I3" s="53"/>
+      <c r="J3" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="46"/>
-    </row>
-    <row r="4" spans="1:21" ht="15.2" customHeight="1">
-      <c r="A4" s="48"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="44"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.2" customHeight="1">
+      <c r="A4" s="46"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -4593,7 +4588,7 @@
       <c r="N4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="26" t="s">
+      <c r="O4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="P4" s="2" t="s">
@@ -4602,18 +4597,18 @@
       <c r="Q4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="21" t="s">
+      <c r="R4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="21" t="s">
+      <c r="S4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="T4" s="21" t="s">
+      <c r="T4" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.2" customHeight="1">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:20" ht="15.2" customHeight="1">
+      <c r="A5" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="4"/>
@@ -4630,90 +4625,90 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="22">
+      <c r="P5" s="8"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="20">
         <f t="shared" ref="R5:R16" si="0">SUM(B5:Q5)/2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="32" t="s">
+    <row r="6" spans="1:20">
+      <c r="A6" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="26">
         <f>IF(R5=0,0,ROUND(B5/R5,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="26">
         <f>IF(R5=0,0,ROUND(C5/R5,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="26">
         <f>IF(R5=0,0,ROUND(D5/R5,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="26">
         <f>IF(R5=0,0,ROUND(E5/R5,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="26">
         <f>IF(R5=0,0,ROUND(F5/R5,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="26">
         <f>IF(R5=0,0,ROUND(G5/R5,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="26">
         <f>IF(R5=0,0,ROUND(H5/R5,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="26">
         <f>IF(R5=0,0,ROUND(I5/R5,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="26">
         <f>IF(R5=0,0,ROUND(J5/R5,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="26">
         <f>IF(R5=0,0,ROUND(K5/R5,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L6" s="29">
+      <c r="L6" s="27">
         <f>IF(R5=0,0,ROUND(L5/R5,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M6" s="29">
+      <c r="M6" s="27">
         <f>IF(R5=0,0,ROUND(M5/R5,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N6" s="29">
+      <c r="N6" s="27">
         <f>IF(R5=0,0,ROUND(N5/R5,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O6" s="29">
+      <c r="O6" s="27">
         <f>IF(R5=0,0,ROUND(O5/R5,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="22">
+      <c r="P6" s="8"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S6" s="23">
+      <c r="S6" s="21">
         <f>(B6+D6+F6+H6+J6+N6)</f>
         <v>0</v>
       </c>
-      <c r="T6" s="23">
+      <c r="T6" s="21">
         <f>(C6+E6+G6+I6+K6+O6)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="8" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:20" ht="15.2" customHeight="1">
+      <c r="A7" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="6"/>
@@ -4729,106 +4724,105 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
-      <c r="O7" s="27"/>
+      <c r="O7" s="25"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="22">
+      <c r="R7" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S7" s="24">
+      <c r="S7" s="22">
         <f>B7+D7+F7+H7+J7+L7+N7</f>
         <v>0</v>
       </c>
-      <c r="T7" s="24">
+      <c r="T7" s="22">
         <f>C7+E7+G7+I7+K7+M7+O7</f>
         <v>0</v>
       </c>
-      <c r="U7" s="14"/>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="32" t="s">
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="26">
         <f>IF(R7=0,0,ROUND(B7/R7,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="26">
         <f>IF(R7=0,0,ROUND(C7/R7,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="26">
         <f>IF(R7=0,0,ROUND(D7/R7,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="26">
         <f>IF(R7=0,0,ROUND(E7/R7,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="26">
         <f>IF(R7=0,0,ROUND(F7/R7,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="26">
         <f>IF(R7=0,0,ROUND(G7/R7,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="26">
         <f>IF(R7=0,0,ROUND(H7/R7,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="26">
         <f>IF(R7=0,0,ROUND(I7/R7,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="26">
         <f>IF(R7=0,0,ROUND(J7/R7,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="26">
         <f>IF(R7=0,0,ROUND(K7/R7,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L8" s="29">
+      <c r="L8" s="27">
         <f>IF(R7=0,0,ROUND(L7/R7,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M8" s="29">
+      <c r="M8" s="27">
         <f>IF(R7=0,0,ROUND(M7/R7,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N8" s="28">
+      <c r="N8" s="26">
         <f>IF(R7=0,0,ROUND(N7/R7,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O8" s="30">
+      <c r="O8" s="28">
         <f>IF(R7=0,0,ROUND(O7/R7,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P8" s="28">
+      <c r="P8" s="26">
         <f>IF(R7=0,0,ROUND(P7/R7,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="31">
+      <c r="Q8" s="29">
         <f>IF(R7=0,0,ROUND(Q7/R7,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R8" s="22">
+      <c r="R8" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S8" s="23">
+      <c r="S8" s="21">
         <f>(B8+D8+F8+H8+J8+N8)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="23">
+      <c r="T8" s="21">
         <f>(C8+E8+G8+I8+K8+O8)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="8" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:20" ht="15.2" customHeight="1">
+      <c r="A9" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="6"/>
@@ -4844,106 +4838,105 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
-      <c r="O9" s="27"/>
+      <c r="O9" s="25"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="5"/>
-      <c r="R9" s="22">
+      <c r="R9" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S9" s="24">
+      <c r="S9" s="22">
         <f>B9+D9+F9+H9+J9+L9+N9</f>
         <v>0</v>
       </c>
-      <c r="T9" s="24">
+      <c r="T9" s="22">
         <f>C9+E9+G9+I9+K9+M9+O9</f>
         <v>0</v>
       </c>
-      <c r="U9" s="14"/>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="32" t="s">
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="26">
         <f>IF(R9=0,0,ROUND(B9/R9,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="26">
         <f>IF(R9=0,0,ROUND(C9/R9,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="26">
         <f>IF(R9=0,0,ROUND(D9/R9,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="26">
         <f>IF(R9=0,0,ROUND(E9/R9,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="26">
         <f>IF(R9=0,0,ROUND(F9/R9,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="26">
         <f>IF(R9=0,0,ROUND(G9/R9,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="26">
         <f>IF(R9=0,0,ROUND(H9/R9,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="26">
         <f>IF(R9=0,0,ROUND(I9/R9,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="26">
         <f>IF(R9=0,0,ROUND(J9/R9,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="26">
         <f>IF(R9=0,0,ROUND(K9/R9,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L10" s="29">
+      <c r="L10" s="27">
         <f>IF(R9=0,0,ROUND(L9/R9,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M10" s="29">
+      <c r="M10" s="27">
         <f>IF(R9=0,0,ROUND(M9/R9,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N10" s="28">
+      <c r="N10" s="26">
         <f>IF(R9=0,0,ROUND(N9/R9,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O10" s="30">
+      <c r="O10" s="28">
         <f>IF(R9=0,0,ROUND(O9/R9,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P10" s="28">
+      <c r="P10" s="26">
         <f>IF(R9=0,0,ROUND(P9/R9,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="31">
+      <c r="Q10" s="29">
         <f>IF(R9=0,0,ROUND(Q9/R9,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R10" s="22">
+      <c r="R10" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S10" s="23">
+      <c r="S10" s="21">
         <f>(B10+D10+F10+H10+J10+N10)</f>
         <v>0</v>
       </c>
-      <c r="T10" s="23">
+      <c r="T10" s="21">
         <f>(C10+E10+G10+I10+K10+O10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="8" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:20" ht="15.2" customHeight="1">
+      <c r="A11" s="16" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="6"/>
@@ -4959,106 +4952,105 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
-      <c r="O11" s="27"/>
+      <c r="O11" s="25"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="5"/>
-      <c r="R11" s="22">
+      <c r="R11" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S11" s="24">
+      <c r="S11" s="22">
         <f>B11+D11+F11+H11+J11+L11+N11</f>
         <v>0</v>
       </c>
-      <c r="T11" s="24">
+      <c r="T11" s="22">
         <f>C11+E11+G11+I11+K11+M11+O11</f>
         <v>0</v>
       </c>
-      <c r="U11" s="14"/>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="32" t="s">
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="26">
         <f>IF(R11=0,0,ROUND(B11/R11,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="26">
         <f>IF(R11=0,0,ROUND(C11/R11,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="26">
         <f>IF(R11=0,0,ROUND(D11/R11,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="26">
         <f>IF(R11=0,0,ROUND(E11/R11,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="26">
         <f>IF(R11=0,0,ROUND(F11/R11,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="26">
         <f>IF(R11=0,0,ROUND(G11/R11,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="26">
         <f>IF(R11=0,0,ROUND(H11/R11,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="26">
         <f>IF(R11=0,0,ROUND(I11/R11,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="26">
         <f>IF(R11=0,0,ROUND(J11/R11,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K12" s="28">
+      <c r="K12" s="26">
         <f>IF(R11=0,0,ROUND(K11/R11,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L12" s="29">
+      <c r="L12" s="27">
         <f>IF(R11=0,0,ROUND(L11/R11,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M12" s="29">
+      <c r="M12" s="27">
         <f>IF(R11=0,0,ROUND(M11/R11,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N12" s="28">
+      <c r="N12" s="26">
         <f>IF(R11=0,0,ROUND(N11/R11,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O12" s="30">
+      <c r="O12" s="28">
         <f>IF(R11=0,0,ROUND(O11/R11,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P12" s="28">
+      <c r="P12" s="26">
         <f>IF(R11=0,0,ROUND(P11/R11,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="31">
+      <c r="Q12" s="29">
         <f>IF(R11=0,0,ROUND(Q11/R11,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R12" s="22">
+      <c r="R12" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S12" s="23">
+      <c r="S12" s="21">
         <f>(B12+D12+F12+H12+J12+N12)</f>
         <v>0</v>
       </c>
-      <c r="T12" s="23">
+      <c r="T12" s="21">
         <f>(C12+E12+G12+I12+K12+O12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="8" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:20" ht="15.2" customHeight="1">
+      <c r="A13" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="6"/>
@@ -5074,106 +5066,105 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="27"/>
+      <c r="O13" s="25"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="5"/>
-      <c r="R13" s="22">
+      <c r="R13" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S13" s="24">
+      <c r="S13" s="22">
         <f>B13+D13+F13+H13+J13+L13+N13</f>
         <v>0</v>
       </c>
-      <c r="T13" s="24">
+      <c r="T13" s="22">
         <f>C13+E13+G13+I13+K13+M13+O13</f>
         <v>0</v>
       </c>
-      <c r="U13" s="14"/>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" s="32" t="s">
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="26">
         <f>IF(R13=0,0,ROUND(B13/R13,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="26">
         <f>IF(R13=0,0,ROUND(C13/R13,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="26">
         <f>IF(R13=0,0,ROUND(D13/R13,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="26">
         <f>IF(R13=0,0,ROUND(E13/R13,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="26">
         <f>IF(R13=0,0,ROUND(F13/R13,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="26">
         <f>IF(R13=0,0,ROUND(G13/R13,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="26">
         <f>IF(R13=0,0,ROUND(H13/R13,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I14" s="26">
         <f>IF(R13=0,0,ROUND(I13/R13,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J14" s="28">
+      <c r="J14" s="26">
         <f>IF(R13=0,0,ROUND(J13/R13,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K14" s="28">
+      <c r="K14" s="26">
         <f>IF(R13=0,0,ROUND(K13/R13,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L14" s="29">
+      <c r="L14" s="27">
         <f>IF(R13=0,0,ROUND(L13/R13,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M14" s="29">
+      <c r="M14" s="27">
         <f>IF(R13=0,0,ROUND(M13/R13,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N14" s="28">
+      <c r="N14" s="26">
         <f>IF(R13=0,0,ROUND(N13/R13,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O14" s="30">
+      <c r="O14" s="28">
         <f>IF(R13=0,0,ROUND(O13/R13,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P14" s="28">
+      <c r="P14" s="26">
         <f>IF(R13=0,0,ROUND(P13/R13,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="31">
+      <c r="Q14" s="29">
         <f>IF(R13=0,0,ROUND(Q13/R13,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R14" s="22">
+      <c r="R14" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S14" s="23">
+      <c r="S14" s="21">
         <f>(B14+D14+F14+H14+J14+N14)</f>
         <v>0</v>
       </c>
-      <c r="T14" s="23">
+      <c r="T14" s="21">
         <f>(C14+E14+G14+I14+K14+O14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="8" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:20" ht="15.2" customHeight="1">
+      <c r="A15" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="6"/>
@@ -5189,106 +5180,105 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
-      <c r="O15" s="27"/>
+      <c r="O15" s="25"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="5"/>
-      <c r="R15" s="22">
+      <c r="R15" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S15" s="24">
+      <c r="S15" s="22">
         <f>B15+D15+F15+H15+J15+L15+N15</f>
         <v>0</v>
       </c>
-      <c r="T15" s="24">
+      <c r="T15" s="22">
         <f>C15+E15+G15+I15+K15+M15+O15</f>
         <v>0</v>
       </c>
-      <c r="U15" s="14"/>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="A16" s="32" t="s">
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="26">
         <f>IF(R15=0,0,ROUND(B15/R15,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="26">
         <f>IF(R15=0,0,ROUND(C15/R15,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="26">
         <f>IF(R15=0,0,ROUND(D15/R15,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="26">
         <f>IF(R15=0,0,ROUND(E15/R15,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="26">
         <f>IF(R15=0,0,ROUND(F15/R15,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="26">
         <f>IF(R15=0,0,ROUND(G15/R15,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H16" s="28">
+      <c r="H16" s="26">
         <f>IF(R15=0,0,ROUND(H15/R15,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I16" s="28">
+      <c r="I16" s="26">
         <f>IF(R15=0,0,ROUND(I15/R15,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J16" s="28">
+      <c r="J16" s="26">
         <f>IF(R15=0,0,ROUND(J15/R15,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K16" s="28">
+      <c r="K16" s="26">
         <f>IF(R15=0,0,ROUND(K15/R15,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L16" s="29">
+      <c r="L16" s="27">
         <f>IF(R15=0,0,ROUND(L15/R15,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M16" s="29">
+      <c r="M16" s="27">
         <f>IF(R15=0,0,ROUND(M15/R15,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N16" s="28">
+      <c r="N16" s="26">
         <f>IF(R15=0,0,ROUND(N15/R15,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O16" s="30">
+      <c r="O16" s="28">
         <f>IF(R15=0,0,ROUND(O15/R15,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P16" s="28">
+      <c r="P16" s="26">
         <f>IF(R15=0,0,ROUND(P15/R15,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="31">
+      <c r="Q16" s="29">
         <f>IF(R15=0,0,ROUND(Q15/R15,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R16" s="22">
+      <c r="R16" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S16" s="23">
+      <c r="S16" s="21">
         <f>(B16+D16+F16+H16+J16+N16)</f>
         <v>0</v>
       </c>
-      <c r="T16" s="23">
+      <c r="T16" s="21">
         <f>(C16+E16+G16+I16+K16+O16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="8" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A17" s="18" t="s">
+    <row r="17" spans="1:20" ht="15.2" customHeight="1">
+      <c r="A17" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="6"/>
@@ -5304,106 +5294,105 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="27"/>
+      <c r="O17" s="25"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="5"/>
-      <c r="R17" s="22">
+      <c r="R17" s="20">
         <f t="shared" ref="R17:R24" si="1">SUM(B17:Q17)/2</f>
         <v>0</v>
       </c>
-      <c r="S17" s="24">
+      <c r="S17" s="22">
         <f>B17+D17+F17+H17+J17+L17+N17</f>
         <v>0</v>
       </c>
-      <c r="T17" s="24">
+      <c r="T17" s="22">
         <f>C17+E17+G17+I17+K17+M17+O17</f>
         <v>0</v>
       </c>
-      <c r="U17" s="14"/>
-    </row>
-    <row r="18" spans="1:21">
-      <c r="A18" s="32" t="s">
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="26">
         <f>IF(R17=0,0,ROUND(B17/R17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="26">
         <f>IF(R17=0,0,ROUND(C17/R17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="26">
         <f>IF(R17=0,0,ROUND(D17/R17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="26">
         <f>IF(R17=0,0,ROUND(E17/R17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="26">
         <f>IF(R17=0,0,ROUND(F17/R17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="26">
         <f>IF(R17=0,0,ROUND(G17/R17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="26">
         <f>IF(R17=0,0,ROUND(H17/R17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I18" s="28">
+      <c r="I18" s="26">
         <f>IF(R17=0,0,ROUND(I17/R17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J18" s="28">
+      <c r="J18" s="26">
         <f>IF(R17=0,0,ROUND(J17/R17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K18" s="28">
+      <c r="K18" s="26">
         <f>IF(R17=0,0,ROUND(K17/R17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L18" s="29">
+      <c r="L18" s="27">
         <f>IF(R17=0,0,ROUND(L17/R17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M18" s="29">
+      <c r="M18" s="27">
         <f>IF(R17=0,0,ROUND(M17/R17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N18" s="28">
+      <c r="N18" s="26">
         <f>IF(R17=0,0,ROUND(N17/R17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O18" s="30">
+      <c r="O18" s="28">
         <f>IF(R17=0,0,ROUND(O17/R17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P18" s="28">
+      <c r="P18" s="26">
         <f>IF(R17=0,0,ROUND(P17/R17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="31">
+      <c r="Q18" s="29">
         <f>IF(R17=0,0,ROUND(Q17/R17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R18" s="22">
+      <c r="R18" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S18" s="23">
+      <c r="S18" s="21">
         <f>(B18+D18+F18+H18+J18+N18)</f>
         <v>0</v>
       </c>
-      <c r="T18" s="23">
+      <c r="T18" s="21">
         <f>(C18+E18+G18+I18+K18+O18)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="8" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A19" s="18" t="s">
+    <row r="19" spans="1:20" ht="15.2" customHeight="1">
+      <c r="A19" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="6"/>
@@ -5419,106 +5408,105 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
-      <c r="O19" s="27"/>
+      <c r="O19" s="25"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="5"/>
-      <c r="R19" s="22">
+      <c r="R19" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S19" s="24">
+      <c r="S19" s="22">
         <f>B19+D19+F19+H19+J19+L19+N19</f>
         <v>0</v>
       </c>
-      <c r="T19" s="24">
+      <c r="T19" s="22">
         <f>C19+E19+G19+I19+K19+M19+O19</f>
         <v>0</v>
       </c>
-      <c r="U19" s="14"/>
-    </row>
-    <row r="20" spans="1:21">
-      <c r="A20" s="32" t="s">
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B20" s="26">
         <f>IF(R19=0,0,ROUND(B19/R19,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="26">
         <f>IF(R19=0,0,ROUND(C19/R19,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="26">
         <f>IF(R19=0,0,ROUND(D19/R19,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E20" s="28">
+      <c r="E20" s="26">
         <f>IF(R19=0,0,ROUND(E19/R19,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="26">
         <f>IF(R19=0,0,ROUND(F19/R19,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="26">
         <f>IF(R19=0,0,ROUND(G19/R19,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H20" s="28">
+      <c r="H20" s="26">
         <f>IF(R19=0,0,ROUND(H19/R19,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I20" s="28">
+      <c r="I20" s="26">
         <f>IF(R19=0,0,ROUND(I19/R19,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J20" s="28">
+      <c r="J20" s="26">
         <f>IF(R19=0,0,ROUND(J19/R19,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K20" s="28">
+      <c r="K20" s="26">
         <f>IF(R19=0,0,ROUND(K19/R19,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L20" s="29">
+      <c r="L20" s="27">
         <f>IF(R19=0,0,ROUND(L19/R19,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M20" s="29">
+      <c r="M20" s="27">
         <f>IF(R19=0,0,ROUND(M19/R19,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N20" s="28">
+      <c r="N20" s="26">
         <f>IF(R19=0,0,ROUND(N19/R19,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O20" s="30">
+      <c r="O20" s="28">
         <f>IF(R19=0,0,ROUND(O19/R19,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P20" s="28">
+      <c r="P20" s="26">
         <f>IF(R19=0,0,ROUND(P19/R19,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="31">
+      <c r="Q20" s="29">
         <f>IF(R19=0,0,ROUND(Q19/R19,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R20" s="22">
+      <c r="R20" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S20" s="23">
+      <c r="S20" s="21">
         <f>(B20+D20+F20+H20+J20+N20)</f>
         <v>0</v>
       </c>
-      <c r="T20" s="23">
+      <c r="T20" s="21">
         <f>(C20+E20+G20+I20+K20+O20)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="8" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A21" s="18" t="s">
+    <row r="21" spans="1:20" ht="15.2" customHeight="1">
+      <c r="A21" s="16" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="6"/>
@@ -5534,106 +5522,105 @@
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
-      <c r="O21" s="27"/>
+      <c r="O21" s="25"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="5"/>
-      <c r="R21" s="22">
+      <c r="R21" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S21" s="24">
+      <c r="S21" s="22">
         <f>B21+D21+F21+H21+J21+L21+N21</f>
         <v>0</v>
       </c>
-      <c r="T21" s="24">
+      <c r="T21" s="22">
         <f>C21+E21+G21+I21+K21+M21+O21</f>
         <v>0</v>
       </c>
-      <c r="U21" s="14"/>
-    </row>
-    <row r="22" spans="1:21">
-      <c r="A22" s="32" t="s">
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="28">
+      <c r="B22" s="26">
         <f>IF(R21=0,0,ROUND(B21/R21,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C22" s="26">
         <f>IF(R21=0,0,ROUND(C21/R21,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="26">
         <f>IF(R21=0,0,ROUND(D21/R21,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="26">
         <f>IF(R21=0,0,ROUND(E21/R21,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="26">
         <f>IF(R21=0,0,ROUND(F21/R21,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="26">
         <f>IF(R21=0,0,ROUND(G21/R21,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H22" s="28">
+      <c r="H22" s="26">
         <f>IF(R21=0,0,ROUND(H21/R21,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I22" s="28">
+      <c r="I22" s="26">
         <f>IF(R21=0,0,ROUND(I21/R21,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J22" s="28">
+      <c r="J22" s="26">
         <f>IF(R21=0,0,ROUND(J21/R21,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K22" s="28">
+      <c r="K22" s="26">
         <f>IF(R21=0,0,ROUND(K21/R21,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L22" s="29">
+      <c r="L22" s="27">
         <f>IF(R21=0,0,ROUND(L21/R21,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M22" s="29">
+      <c r="M22" s="27">
         <f>IF(R21=0,0,ROUND(M21/R21,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N22" s="28">
+      <c r="N22" s="26">
         <f>IF(R21=0,0,ROUND(N21/R21,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O22" s="30">
+      <c r="O22" s="28">
         <f>IF(R21=0,0,ROUND(O21/R21,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P22" s="28">
+      <c r="P22" s="26">
         <f>IF(R21=0,0,ROUND(P21/R21,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="31">
+      <c r="Q22" s="29">
         <f>IF(R21=0,0,ROUND(Q21/R21,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R22" s="22">
+      <c r="R22" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S22" s="23">
+      <c r="S22" s="21">
         <f>(B22+D22+F22+H22+J22+N22)</f>
         <v>0</v>
       </c>
-      <c r="T22" s="23">
+      <c r="T22" s="21">
         <f>(C22+E22+G22+I22+K22+O22)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="8" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A23" s="18" t="s">
+    <row r="23" spans="1:20" ht="15.2" customHeight="1">
+      <c r="A23" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="6"/>
@@ -5649,106 +5636,105 @@
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
-      <c r="O23" s="27"/>
+      <c r="O23" s="25"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="5"/>
-      <c r="R23" s="22">
+      <c r="R23" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S23" s="24">
+      <c r="S23" s="22">
         <f>B23+D23+F23+H23+J23+L23+N23</f>
         <v>0</v>
       </c>
-      <c r="T23" s="24">
+      <c r="T23" s="22">
         <f>C23+E23+G23+I23+K23+M23+O23</f>
         <v>0</v>
       </c>
-      <c r="U23" s="14"/>
-    </row>
-    <row r="24" spans="1:21">
-      <c r="A24" s="32" t="s">
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="26">
         <f>IF(R23=0,0,ROUND(B23/R23,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="26">
         <f>IF(R23=0,0,ROUND(C23/R23,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D24" s="28">
+      <c r="D24" s="26">
         <f>IF(R23=0,0,ROUND(D23/R23,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="26">
         <f>IF(R23=0,0,ROUND(E23/R23,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="26">
         <f>IF(R23=0,0,ROUND(F23/R23,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="26">
         <f>IF(R23=0,0,ROUND(G23/R23,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H24" s="28">
+      <c r="H24" s="26">
         <f>IF(R23=0,0,ROUND(H23/R23,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I24" s="28">
+      <c r="I24" s="26">
         <f>IF(R23=0,0,ROUND(I23/R23,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J24" s="28">
+      <c r="J24" s="26">
         <f>IF(R23=0,0,ROUND(J23/R23,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K24" s="28">
+      <c r="K24" s="26">
         <f>IF(R23=0,0,ROUND(K23/R23,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L24" s="29">
+      <c r="L24" s="27">
         <f>IF(R23=0,0,ROUND(L23/R23,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M24" s="29">
+      <c r="M24" s="27">
         <f>IF(R23=0,0,ROUND(M23/R23,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N24" s="28">
+      <c r="N24" s="26">
         <f>IF(R23=0,0,ROUND(N23/R23,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O24" s="30">
+      <c r="O24" s="28">
         <f>IF(R23=0,0,ROUND(O23/R23,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P24" s="28">
+      <c r="P24" s="26">
         <f>IF(R23=0,0,ROUND(P23/R23,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="31">
+      <c r="Q24" s="29">
         <f>IF(R23=0,0,ROUND(Q23/R23,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R24" s="22">
+      <c r="R24" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S24" s="23">
+      <c r="S24" s="21">
         <f>(B24+D24+F24+H24+J24+N24)</f>
         <v>0</v>
       </c>
-      <c r="T24" s="23">
+      <c r="T24" s="21">
         <f>(C24+E24+G24+I24+K24+O24)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="8" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A25" s="18" t="s">
+    <row r="25" spans="1:20" ht="15.2" customHeight="1">
+      <c r="A25" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="6"/>
@@ -5764,106 +5750,105 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="27"/>
+      <c r="O25" s="25"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="5"/>
-      <c r="R25" s="22">
+      <c r="R25" s="20">
         <f t="shared" ref="R25:R34" si="2">SUM(B25:Q25)/2</f>
         <v>0</v>
       </c>
-      <c r="S25" s="24">
+      <c r="S25" s="22">
         <f>B25+D25+F25+H25+J25+L25+N25</f>
         <v>0</v>
       </c>
-      <c r="T25" s="24">
+      <c r="T25" s="22">
         <f>C25+E25+G25+I25+K25+M25+O25</f>
         <v>0</v>
       </c>
-      <c r="U25" s="14"/>
-    </row>
-    <row r="26" spans="1:21">
-      <c r="A26" s="32" t="s">
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="26">
         <f>IF(R25=0,0,ROUND(B25/R25,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C26" s="26">
         <f>IF(R25=0,0,ROUND(C25/R25,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D26" s="28">
+      <c r="D26" s="26">
         <f>IF(R25=0,0,ROUND(D25/R25,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="26">
         <f>IF(R25=0,0,ROUND(E25/R25,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="26">
         <f>IF(R25=0,0,ROUND(F25/R25,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G26" s="28">
+      <c r="G26" s="26">
         <f>IF(R25=0,0,ROUND(G25/R25,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H26" s="28">
+      <c r="H26" s="26">
         <f>IF(R25=0,0,ROUND(H25/R25,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I26" s="28">
+      <c r="I26" s="26">
         <f>IF(R25=0,0,ROUND(I25/R25,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J26" s="28">
+      <c r="J26" s="26">
         <f>IF(R25=0,0,ROUND(J25/R25,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K26" s="28">
+      <c r="K26" s="26">
         <f>IF(R25=0,0,ROUND(K25/R25,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L26" s="29">
+      <c r="L26" s="27">
         <f>IF(R25=0,0,ROUND(L25/R25,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M26" s="29">
+      <c r="M26" s="27">
         <f>IF(R25=0,0,ROUND(M25/R25,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N26" s="28">
+      <c r="N26" s="26">
         <f>IF(R25=0,0,ROUND(N25/R25,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O26" s="30">
+      <c r="O26" s="28">
         <f>IF(R25=0,0,ROUND(O25/R25,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P26" s="28">
+      <c r="P26" s="26">
         <f>IF(R25=0,0,ROUND(P25/R25,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="31">
+      <c r="Q26" s="29">
         <f>IF(R25=0,0,ROUND(Q25/R25,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R26" s="22">
+      <c r="R26" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S26" s="23">
+      <c r="S26" s="21">
         <f>(B26+D26+F26+H26+J26+N26)</f>
         <v>0</v>
       </c>
-      <c r="T26" s="23">
+      <c r="T26" s="21">
         <f>(C26+E26+G26+I26+K26+O26)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="8" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A27" s="18" t="s">
+    <row r="27" spans="1:20" ht="15.2" customHeight="1">
+      <c r="A27" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B27" s="6"/>
@@ -5879,106 +5864,105 @@
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
-      <c r="O27" s="27"/>
+      <c r="O27" s="25"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="5"/>
-      <c r="R27" s="22">
+      <c r="R27" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S27" s="24">
+      <c r="S27" s="22">
         <f>B27+D27+F27+H27+J27+L27+N27</f>
         <v>0</v>
       </c>
-      <c r="T27" s="24">
+      <c r="T27" s="22">
         <f>C27+E27+G27+I27+K27+M27+O27</f>
         <v>0</v>
       </c>
-      <c r="U27" s="14"/>
-    </row>
-    <row r="28" spans="1:21">
-      <c r="A28" s="32" t="s">
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="26">
         <f>IF(R27=0,0,ROUND(B27/R27,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="26">
         <f>IF(R27=0,0,ROUND(C27/R27,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D28" s="28">
+      <c r="D28" s="26">
         <f>IF(R27=0,0,ROUND(D27/R27,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="26">
         <f>IF(R27=0,0,ROUND(E27/R27,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="26">
         <f>IF(R27=0,0,ROUND(F27/R27,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="26">
         <f>IF(R27=0,0,ROUND(G27/R27,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H28" s="28">
+      <c r="H28" s="26">
         <f>IF(R27=0,0,ROUND(H27/R27,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I28" s="28">
+      <c r="I28" s="26">
         <f>IF(R27=0,0,ROUND(I27/R27,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J28" s="28">
+      <c r="J28" s="26">
         <f>IF(R27=0,0,ROUND(J27/R27,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K28" s="28">
+      <c r="K28" s="26">
         <f>IF(R27=0,0,ROUND(K27/R27,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L28" s="29">
+      <c r="L28" s="27">
         <f>IF(R27=0,0,ROUND(L27/R27,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M28" s="29">
+      <c r="M28" s="27">
         <f>IF(R27=0,0,ROUND(M27/R27,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N28" s="28">
+      <c r="N28" s="26">
         <f>IF(R27=0,0,ROUND(N27/R27,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O28" s="30">
+      <c r="O28" s="28">
         <f>IF(R27=0,0,ROUND(O27/R27,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P28" s="28">
+      <c r="P28" s="26">
         <f>IF(R27=0,0,ROUND(P27/R27,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="31">
+      <c r="Q28" s="29">
         <f>IF(R27=0,0,ROUND(Q27/R27,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R28" s="22">
+      <c r="R28" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S28" s="23">
+      <c r="S28" s="21">
         <f>(B28+D28+F28+H28+J28+N28)</f>
         <v>0</v>
       </c>
-      <c r="T28" s="23">
+      <c r="T28" s="21">
         <f>(C28+E28+G28+I28+K28+O28)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="8" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A29" s="18" t="s">
+    <row r="29" spans="1:20" ht="15.2" customHeight="1">
+      <c r="A29" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="6"/>
@@ -5994,106 +5978,105 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
-      <c r="O29" s="27"/>
+      <c r="O29" s="25"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="5"/>
-      <c r="R29" s="22">
+      <c r="R29" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S29" s="24">
+      <c r="S29" s="22">
         <f>B29+D29+F29+H29+J29+L29+N29</f>
         <v>0</v>
       </c>
-      <c r="T29" s="24">
+      <c r="T29" s="22">
         <f>C29+E29+G29+I29+K29+M29+O29</f>
         <v>0</v>
       </c>
-      <c r="U29" s="14"/>
-    </row>
-    <row r="30" spans="1:21">
-      <c r="A30" s="32" t="s">
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="28">
+      <c r="B30" s="26">
         <f>IF(R29=0,0,ROUND(B29/R29,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C30" s="28">
+      <c r="C30" s="26">
         <f>IF(R29=0,0,ROUND(C29/R29,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D30" s="28">
+      <c r="D30" s="26">
         <f>IF(R29=0,0,ROUND(D29/R29,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="26">
         <f>IF(R29=0,0,ROUND(E29/R29,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F30" s="28">
+      <c r="F30" s="26">
         <f>IF(R29=0,0,ROUND(F29/R29,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30" s="26">
         <f>IF(R29=0,0,ROUND(G29/R29,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H30" s="28">
+      <c r="H30" s="26">
         <f>IF(R29=0,0,ROUND(H29/R29,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I30" s="28">
+      <c r="I30" s="26">
         <f>IF(R29=0,0,ROUND(I29/R29,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J30" s="28">
+      <c r="J30" s="26">
         <f>IF(R29=0,0,ROUND(J29/R29,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K30" s="28">
+      <c r="K30" s="26">
         <f>IF(R29=0,0,ROUND(K29/R29,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L30" s="29">
+      <c r="L30" s="27">
         <f>IF(R29=0,0,ROUND(L29/R29,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M30" s="29">
+      <c r="M30" s="27">
         <f>IF(R29=0,0,ROUND(M29/R29,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N30" s="28">
+      <c r="N30" s="26">
         <f>IF(R29=0,0,ROUND(N29/R29,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O30" s="30">
+      <c r="O30" s="28">
         <f>IF(R29=0,0,ROUND(O29/R29,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P30" s="28">
+      <c r="P30" s="26">
         <f>IF(R29=0,0,ROUND(P29/R29,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="31">
+      <c r="Q30" s="29">
         <f>IF(R29=0,0,ROUND(Q29/R29,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R30" s="22">
+      <c r="R30" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S30" s="23">
+      <c r="S30" s="21">
         <f>(B30+D30+F30+H30+J30+N30)</f>
         <v>0</v>
       </c>
-      <c r="T30" s="23">
+      <c r="T30" s="21">
         <f>(C30+E30+G30+I30+K30+O30)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="8" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A31" s="18" t="s">
+    <row r="31" spans="1:20" ht="15.2" customHeight="1">
+      <c r="A31" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="6"/>
@@ -6109,106 +6092,105 @@
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
-      <c r="O31" s="27"/>
+      <c r="O31" s="25"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="5"/>
-      <c r="R31" s="22">
+      <c r="R31" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S31" s="24">
+      <c r="S31" s="22">
         <f>B31+D31+F31+H31+J31+L31+N31</f>
         <v>0</v>
       </c>
-      <c r="T31" s="24">
+      <c r="T31" s="22">
         <f>C31+E31+G31+I31+K31+M31+O31</f>
         <v>0</v>
       </c>
-      <c r="U31" s="14"/>
-    </row>
-    <row r="32" spans="1:21">
-      <c r="A32" s="32" t="s">
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="28">
+      <c r="B32" s="26">
         <f>IF(R31=0,0,ROUND(B31/R31,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C32" s="28">
+      <c r="C32" s="26">
         <f>IF(R31=0,0,ROUND(C31/R31,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D32" s="28">
+      <c r="D32" s="26">
         <f>IF(R31=0,0,ROUND(D31/R31,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E32" s="28">
+      <c r="E32" s="26">
         <f>IF(R31=0,0,ROUND(E31/R31,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F32" s="28">
+      <c r="F32" s="26">
         <f>IF(R31=0,0,ROUND(F31/R31,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G32" s="28">
+      <c r="G32" s="26">
         <f>IF(R31=0,0,ROUND(G31/R31,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H32" s="28">
+      <c r="H32" s="26">
         <f>IF(R31=0,0,ROUND(H31/R31,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I32" s="28">
+      <c r="I32" s="26">
         <f>IF(R31=0,0,ROUND(I31/R31,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J32" s="28">
+      <c r="J32" s="26">
         <f>IF(R31=0,0,ROUND(J31/R31,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K32" s="28">
+      <c r="K32" s="26">
         <f>IF(R31=0,0,ROUND(K31/R31,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L32" s="29">
+      <c r="L32" s="27">
         <f>IF(R31=0,0,ROUND(L31/R31,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M32" s="29">
+      <c r="M32" s="27">
         <f>IF(R31=0,0,ROUND(M31/R31,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N32" s="28">
+      <c r="N32" s="26">
         <f>IF(R31=0,0,ROUND(N31/R31,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O32" s="30">
+      <c r="O32" s="28">
         <f>IF(R31=0,0,ROUND(O31/R31,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P32" s="28">
+      <c r="P32" s="26">
         <f>IF(R31=0,0,ROUND(P31/R31,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q32" s="31">
+      <c r="Q32" s="29">
         <f>IF(R31=0,0,ROUND(Q31/R31,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R32" s="22">
+      <c r="R32" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S32" s="23">
+      <c r="S32" s="21">
         <f>(B32+D32+F32+H32+J32+N32)</f>
         <v>0</v>
       </c>
-      <c r="T32" s="23">
+      <c r="T32" s="21">
         <f>(C32+E32+G32+I32+K32+O32)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="8" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A33" s="18" t="s">
+    <row r="33" spans="1:20" ht="15.2" customHeight="1">
+      <c r="A33" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="6"/>
@@ -6224,106 +6206,105 @@
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
-      <c r="O33" s="27"/>
+      <c r="O33" s="25"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="5"/>
-      <c r="R33" s="22">
+      <c r="R33" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S33" s="24">
+      <c r="S33" s="22">
         <f>B33+D33+F33+H33+J33+L33+N33</f>
         <v>0</v>
       </c>
-      <c r="T33" s="24">
+      <c r="T33" s="22">
         <f>C33+E33+G33+I33+K33+M33+O33</f>
         <v>0</v>
       </c>
-      <c r="U33" s="14"/>
-    </row>
-    <row r="34" spans="1:21">
-      <c r="A34" s="32" t="s">
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="28">
+      <c r="B34" s="26">
         <f>IF(R33=0,0,ROUND(B33/R33,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C34" s="28">
+      <c r="C34" s="26">
         <f>IF(R33=0,0,ROUND(C33/R33,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D34" s="28">
+      <c r="D34" s="26">
         <f>IF(R33=0,0,ROUND(D33/R33,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E34" s="28">
+      <c r="E34" s="26">
         <f>IF(R33=0,0,ROUND(E33/R33,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F34" s="28">
+      <c r="F34" s="26">
         <f>IF(R33=0,0,ROUND(F33/R33,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G34" s="28">
+      <c r="G34" s="26">
         <f>IF(R33=0,0,ROUND(G33/R33,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H34" s="28">
+      <c r="H34" s="26">
         <f>IF(R33=0,0,ROUND(H33/R33,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I34" s="28">
+      <c r="I34" s="26">
         <f>IF(R33=0,0,ROUND(I33/R33,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J34" s="28">
+      <c r="J34" s="26">
         <f>IF(R33=0,0,ROUND(J33/R33,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K34" s="28">
+      <c r="K34" s="26">
         <f>IF(R33=0,0,ROUND(K33/R33,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L34" s="29">
+      <c r="L34" s="27">
         <f>IF(R33=0,0,ROUND(L33/R33,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M34" s="29">
+      <c r="M34" s="27">
         <f>IF(R33=0,0,ROUND(M33/R33,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N34" s="28">
+      <c r="N34" s="26">
         <f>IF(R33=0,0,ROUND(N33/R33,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O34" s="30">
+      <c r="O34" s="28">
         <f>IF(R33=0,0,ROUND(O33/R33,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P34" s="28">
+      <c r="P34" s="26">
         <f>IF(R33=0,0,ROUND(P33/R33,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="31">
+      <c r="Q34" s="29">
         <f>IF(R33=0,0,ROUND(Q33/R33,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R34" s="22">
+      <c r="R34" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S34" s="23">
+      <c r="S34" s="21">
         <f>(B34+D34+F34+H34+J34+N34)</f>
         <v>0</v>
       </c>
-      <c r="T34" s="23">
+      <c r="T34" s="21">
         <f>(C34+E34+G34+I34+K34+O34)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="8" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A35" s="18" t="s">
+    <row r="35" spans="1:20" ht="15.2" customHeight="1">
+      <c r="A35" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="6"/>
@@ -6339,106 +6320,105 @@
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
-      <c r="O35" s="27"/>
+      <c r="O35" s="25"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="5"/>
-      <c r="R35" s="22">
+      <c r="R35" s="20">
         <f t="shared" ref="R35:R40" si="3">SUM(B35:Q35)/2</f>
         <v>0</v>
       </c>
-      <c r="S35" s="24">
+      <c r="S35" s="22">
         <f>B35+D35+F35+H35+J35+L35+N35</f>
         <v>0</v>
       </c>
-      <c r="T35" s="24">
+      <c r="T35" s="22">
         <f>C35+E35+G35+I35+K35+M35+O35</f>
         <v>0</v>
       </c>
-      <c r="U35" s="14"/>
-    </row>
-    <row r="36" spans="1:21">
-      <c r="A36" s="32" t="s">
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="28">
+      <c r="B36" s="26">
         <f>IF(R35=0,0,ROUND(B35/R35,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C36" s="28">
+      <c r="C36" s="26">
         <f>IF(R35=0,0,ROUND(C35/R35,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D36" s="28">
+      <c r="D36" s="26">
         <f>IF(R35=0,0,ROUND(D35/R35,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E36" s="28">
+      <c r="E36" s="26">
         <f>IF(R35=0,0,ROUND(E35/R35,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F36" s="28">
+      <c r="F36" s="26">
         <f>IF(R35=0,0,ROUND(F35/R35,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G36" s="28">
+      <c r="G36" s="26">
         <f>IF(R35=0,0,ROUND(G35/R35,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H36" s="28">
+      <c r="H36" s="26">
         <f>IF(R35=0,0,ROUND(H35/R35,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I36" s="28">
+      <c r="I36" s="26">
         <f>IF(R35=0,0,ROUND(I35/R35,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J36" s="28">
+      <c r="J36" s="26">
         <f>IF(R35=0,0,ROUND(J35/R35,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K36" s="28">
+      <c r="K36" s="26">
         <f>IF(R35=0,0,ROUND(K35/R35,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L36" s="29">
+      <c r="L36" s="27">
         <f>IF(R35=0,0,ROUND(L35/R35,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M36" s="29">
+      <c r="M36" s="27">
         <f>IF(R35=0,0,ROUND(M35/R35,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N36" s="28">
+      <c r="N36" s="26">
         <f>IF(R35=0,0,ROUND(N35/R35,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O36" s="30">
+      <c r="O36" s="28">
         <f>IF(R35=0,0,ROUND(O35/R35,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P36" s="28">
+      <c r="P36" s="26">
         <f>IF(R35=0,0,ROUND(P35/R35,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="31">
+      <c r="Q36" s="29">
         <f>IF(R35=0,0,ROUND(Q35/R35,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R36" s="22">
+      <c r="R36" s="20">
         <f>SUM(B36:Q36)/2</f>
         <v>0</v>
       </c>
-      <c r="S36" s="23">
+      <c r="S36" s="21">
         <f>(B36+D36+F36+H36+J36+N36)</f>
         <v>0</v>
       </c>
-      <c r="T36" s="23">
+      <c r="T36" s="21">
         <f>(C36+E36+G36+I36+K36+O36)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" s="8" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A37" s="18" t="s">
+    <row r="37" spans="1:20" ht="15.2" customHeight="1">
+      <c r="A37" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="6"/>
@@ -6454,106 +6434,105 @@
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
-      <c r="O37" s="27"/>
+      <c r="O37" s="25"/>
       <c r="P37" s="6"/>
       <c r="Q37" s="5"/>
-      <c r="R37" s="22">
+      <c r="R37" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S37" s="24">
+      <c r="S37" s="22">
         <f>B37+D37+F37+H37+J37+L37+N37</f>
         <v>0</v>
       </c>
-      <c r="T37" s="24">
+      <c r="T37" s="22">
         <f>C37+E37+G37+I37+K37+M37+O37</f>
         <v>0</v>
       </c>
-      <c r="U37" s="14"/>
-    </row>
-    <row r="38" spans="1:21">
-      <c r="A38" s="32" t="s">
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="28">
+      <c r="B38" s="26">
         <f>IF(R37=0,0,ROUND(B37/R37,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C38" s="28">
+      <c r="C38" s="26">
         <f>IF(R37=0,0,ROUND(C37/R37,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D38" s="28">
+      <c r="D38" s="26">
         <f>IF(R37=0,0,ROUND(D37/R37,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E38" s="28">
+      <c r="E38" s="26">
         <f>IF(R37=0,0,ROUND(E37/R37,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F38" s="28">
+      <c r="F38" s="26">
         <f>IF(R37=0,0,ROUND(F37/R37,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G38" s="28">
+      <c r="G38" s="26">
         <f>IF(R37=0,0,ROUND(G37/R37,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H38" s="28">
+      <c r="H38" s="26">
         <f>IF(R37=0,0,ROUND(H37/R37,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I38" s="28">
+      <c r="I38" s="26">
         <f>IF(R37=0,0,ROUND(I37/R37,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J38" s="28">
+      <c r="J38" s="26">
         <f>IF(R37=0,0,ROUND(J37/R37,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K38" s="28">
+      <c r="K38" s="26">
         <f>IF(R37=0,0,ROUND(K37/R37,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L38" s="29">
+      <c r="L38" s="27">
         <f>IF(R37=0,0,ROUND(L37/R37,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M38" s="29">
+      <c r="M38" s="27">
         <f>IF(R37=0,0,ROUND(M37/R37,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N38" s="28">
+      <c r="N38" s="26">
         <f>IF(R37=0,0,ROUND(N37/R37,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O38" s="30">
+      <c r="O38" s="28">
         <f>IF(R37=0,0,ROUND(O37/R37,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P38" s="28">
+      <c r="P38" s="26">
         <f>IF(R37=0,0,ROUND(P37/R37,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="31">
+      <c r="Q38" s="29">
         <f>IF(R37=0,0,ROUND(Q37/R37,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R38" s="22">
+      <c r="R38" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S38" s="23">
+      <c r="S38" s="21">
         <f>(B38+D38+F38+H38+J38+N38)</f>
         <v>0</v>
       </c>
-      <c r="T38" s="23">
+      <c r="T38" s="21">
         <f>(C38+E38+G38+I38+K38+O38)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" s="8" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A39" s="18" t="s">
+    <row r="39" spans="1:20" ht="15.2" customHeight="1">
+      <c r="A39" s="16" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="6"/>
@@ -6569,106 +6548,105 @@
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
-      <c r="O39" s="27"/>
+      <c r="O39" s="25"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="5"/>
-      <c r="R39" s="22">
+      <c r="R39" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S39" s="24">
+      <c r="S39" s="22">
         <f>B39+D39+F39+H39+J39+L39+N39</f>
         <v>0</v>
       </c>
-      <c r="T39" s="24">
+      <c r="T39" s="22">
         <f>C39+E39+G39+I39+K39+M39+O39</f>
         <v>0</v>
       </c>
-      <c r="U39" s="14"/>
-    </row>
-    <row r="40" spans="1:21">
-      <c r="A40" s="32" t="s">
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="28">
+      <c r="B40" s="26">
         <f>IF(R39=0,0,ROUND(B39/R39,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C40" s="28">
+      <c r="C40" s="26">
         <f>IF(R39=0,0,ROUND(C39/R39,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D40" s="28">
+      <c r="D40" s="26">
         <f>IF(R39=0,0,ROUND(D39/R39,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E40" s="28">
+      <c r="E40" s="26">
         <f>IF(R39=0,0,ROUND(E39/R39,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F40" s="28">
+      <c r="F40" s="26">
         <f>IF(R39=0,0,ROUND(F39/R39,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G40" s="28">
+      <c r="G40" s="26">
         <f>IF(R39=0,0,ROUND(G39/R39,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H40" s="28">
+      <c r="H40" s="26">
         <f>IF(R39=0,0,ROUND(H39/R39,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I40" s="28">
+      <c r="I40" s="26">
         <f>IF(R39=0,0,ROUND(I39/R39,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J40" s="28">
+      <c r="J40" s="26">
         <f>IF(R39=0,0,ROUND(J39/R39,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K40" s="28">
+      <c r="K40" s="26">
         <f>IF(R39=0,0,ROUND(K39/R39,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L40" s="29">
+      <c r="L40" s="27">
         <f>IF(R39=0,0,ROUND(L39/R39,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M40" s="29">
+      <c r="M40" s="27">
         <f>IF(R39=0,0,ROUND(M39/R39,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N40" s="28">
+      <c r="N40" s="26">
         <f>IF(R39=0,0,ROUND(N39/R39,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O40" s="30">
+      <c r="O40" s="28">
         <f>IF(R39=0,0,ROUND(O39/R39,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P40" s="28">
+      <c r="P40" s="26">
         <f>IF(R39=0,0,ROUND(P39/R39,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="31">
+      <c r="Q40" s="29">
         <f>IF(R39=0,0,ROUND(Q39/R39,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R40" s="22">
+      <c r="R40" s="20">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S40" s="23">
+      <c r="S40" s="21">
         <f>(B40+D40+F40+H40+J40+N40)</f>
         <v>0</v>
       </c>
-      <c r="T40" s="23">
+      <c r="T40" s="21">
         <f>(C40+E40+G40+I40+K40+O40)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" s="8" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A41" s="18" t="s">
+    <row r="41" spans="1:20" ht="15.2" customHeight="1">
+      <c r="A41" s="16" t="s">
         <v>38</v>
       </c>
       <c r="B41" s="6"/>
@@ -6684,106 +6662,105 @@
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
-      <c r="O41" s="27"/>
+      <c r="O41" s="25"/>
       <c r="P41" s="6"/>
       <c r="Q41" s="5"/>
-      <c r="R41" s="22">
+      <c r="R41" s="20">
         <f t="shared" ref="R41:R48" si="4">SUM(B41:Q41)/2</f>
         <v>0</v>
       </c>
-      <c r="S41" s="24">
+      <c r="S41" s="22">
         <f>B41+D41+F41+H41+J41+L41+N41</f>
         <v>0</v>
       </c>
-      <c r="T41" s="24">
+      <c r="T41" s="22">
         <f>C41+E41+G41+I41+K41+M41+O41</f>
         <v>0</v>
       </c>
-      <c r="U41" s="14"/>
-    </row>
-    <row r="42" spans="1:21">
-      <c r="A42" s="32" t="s">
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="28">
+      <c r="B42" s="26">
         <f>IF(R41=0,0,ROUND(B41/R41,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C42" s="28">
+      <c r="C42" s="26">
         <f>IF(R41=0,0,ROUND(C41/R41,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D42" s="28">
+      <c r="D42" s="26">
         <f>IF(R41=0,0,ROUND(D41/R41,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E42" s="28">
+      <c r="E42" s="26">
         <f>IF(R41=0,0,ROUND(E41/R41,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F42" s="28">
+      <c r="F42" s="26">
         <f>IF(R41=0,0,ROUND(F41/R41,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G42" s="28">
+      <c r="G42" s="26">
         <f>IF(R41=0,0,ROUND(G41/R41,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H42" s="28">
+      <c r="H42" s="26">
         <f>IF(R41=0,0,ROUND(H41/R41,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I42" s="28">
+      <c r="I42" s="26">
         <f>IF(R41=0,0,ROUND(I41/R41,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J42" s="28">
+      <c r="J42" s="26">
         <f>IF(R41=0,0,ROUND(J41/R41,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K42" s="28">
+      <c r="K42" s="26">
         <f>IF(R41=0,0,ROUND(K41/R41,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L42" s="29">
+      <c r="L42" s="27">
         <f>IF(R41=0,0,ROUND(L41/R41,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M42" s="29">
+      <c r="M42" s="27">
         <f>IF(R41=0,0,ROUND(M41/R41,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N42" s="28">
+      <c r="N42" s="26">
         <f>IF(R41=0,0,ROUND(N41/R41,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O42" s="30">
+      <c r="O42" s="28">
         <f>IF(R41=0,0,ROUND(O41/R41,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P42" s="28">
+      <c r="P42" s="26">
         <f>IF(R41=0,0,ROUND(P41/R41,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q42" s="31">
+      <c r="Q42" s="29">
         <f>IF(R41=0,0,ROUND(Q41/R41,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R42" s="22">
+      <c r="R42" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S42" s="23">
+      <c r="S42" s="21">
         <f>(B42+D42+F42+H42+J42+N42)</f>
         <v>0</v>
       </c>
-      <c r="T42" s="23">
+      <c r="T42" s="21">
         <f>(C42+E42+G42+I42+K42+O42)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" s="8" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A43" s="18" t="s">
+    <row r="43" spans="1:20" ht="15.2" customHeight="1">
+      <c r="A43" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B43" s="6"/>
@@ -6799,106 +6776,105 @@
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
-      <c r="O43" s="27"/>
+      <c r="O43" s="25"/>
       <c r="P43" s="6"/>
       <c r="Q43" s="5"/>
-      <c r="R43" s="22">
+      <c r="R43" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S43" s="24">
+      <c r="S43" s="22">
         <f>B43+D43+F43+H43+J43+L43+N43</f>
         <v>0</v>
       </c>
-      <c r="T43" s="24">
+      <c r="T43" s="22">
         <f>C43+E43+G43+I43+K43+M43+O43</f>
         <v>0</v>
       </c>
-      <c r="U43" s="14"/>
-    </row>
-    <row r="44" spans="1:21">
-      <c r="A44" s="32" t="s">
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B44" s="28">
+      <c r="B44" s="26">
         <f>IF(R43=0,0,ROUND(B43/R43,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C44" s="28">
+      <c r="C44" s="26">
         <f>IF(R43=0,0,ROUND(C43/R43,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D44" s="28">
+      <c r="D44" s="26">
         <f>IF(R43=0,0,ROUND(D43/R43,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E44" s="28">
+      <c r="E44" s="26">
         <f>IF(R43=0,0,ROUND(E43/R43,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F44" s="28">
+      <c r="F44" s="26">
         <f>IF(R43=0,0,ROUND(F43/R43,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G44" s="28">
+      <c r="G44" s="26">
         <f>IF(R43=0,0,ROUND(G43/R43,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H44" s="28">
+      <c r="H44" s="26">
         <f>IF(R43=0,0,ROUND(H43/R43,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I44" s="28">
+      <c r="I44" s="26">
         <f>IF(R43=0,0,ROUND(I43/R43,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J44" s="28">
+      <c r="J44" s="26">
         <f>IF(R43=0,0,ROUND(J43/R43,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K44" s="28">
+      <c r="K44" s="26">
         <f>IF(R43=0,0,ROUND(K43/R43,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L44" s="29">
+      <c r="L44" s="27">
         <f>IF(R43=0,0,ROUND(L43/R43,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M44" s="29">
+      <c r="M44" s="27">
         <f>IF(R43=0,0,ROUND(M43/R43,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N44" s="28">
+      <c r="N44" s="26">
         <f>IF(R43=0,0,ROUND(N43/R43,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O44" s="30">
+      <c r="O44" s="28">
         <f>IF(R43=0,0,ROUND(O43/R43,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P44" s="28">
+      <c r="P44" s="26">
         <f>IF(R43=0,0,ROUND(P43/R43,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="31">
+      <c r="Q44" s="29">
         <f>IF(R43=0,0,ROUND(Q43/R43,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R44" s="22">
+      <c r="R44" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S44" s="23">
+      <c r="S44" s="21">
         <f>(B44+D44+F44+H44+J44+N44)</f>
         <v>0</v>
       </c>
-      <c r="T44" s="23">
+      <c r="T44" s="21">
         <f>(C44+E44+G44+I44+K44+O44)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" s="8" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A45" s="18" t="s">
+    <row r="45" spans="1:20" ht="15.2" customHeight="1">
+      <c r="A45" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B45" s="6"/>
@@ -6914,106 +6890,105 @@
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
-      <c r="O45" s="27"/>
+      <c r="O45" s="25"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="5"/>
-      <c r="R45" s="22">
+      <c r="R45" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S45" s="24">
+      <c r="S45" s="22">
         <f>B45+D45+F45+H45+J45+L45+N45</f>
         <v>0</v>
       </c>
-      <c r="T45" s="24">
+      <c r="T45" s="22">
         <f>C45+E45+G45+I45+K45+M45+O45</f>
         <v>0</v>
       </c>
-      <c r="U45" s="14"/>
-    </row>
-    <row r="46" spans="1:21">
-      <c r="A46" s="32" t="s">
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B46" s="28">
+      <c r="B46" s="26">
         <f>IF(R45=0,0,ROUND(B45/R45,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C46" s="28">
+      <c r="C46" s="26">
         <f>IF(R45=0,0,ROUND(C45/R45,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D46" s="28">
+      <c r="D46" s="26">
         <f>IF(R45=0,0,ROUND(D45/R45,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E46" s="28">
+      <c r="E46" s="26">
         <f>IF(R45=0,0,ROUND(E45/R45,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F46" s="28">
+      <c r="F46" s="26">
         <f>IF(R45=0,0,ROUND(F45/R45,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G46" s="28">
+      <c r="G46" s="26">
         <f>IF(R45=0,0,ROUND(G45/R45,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H46" s="28">
+      <c r="H46" s="26">
         <f>IF(R45=0,0,ROUND(H45/R45,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I46" s="28">
+      <c r="I46" s="26">
         <f>IF(R45=0,0,ROUND(I45/R45,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J46" s="28">
+      <c r="J46" s="26">
         <f>IF(R45=0,0,ROUND(J45/R45,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K46" s="28">
+      <c r="K46" s="26">
         <f>IF(R45=0,0,ROUND(K45/R45,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L46" s="29">
+      <c r="L46" s="27">
         <f>IF(R45=0,0,ROUND(L45/R45,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M46" s="29">
+      <c r="M46" s="27">
         <f>IF(R45=0,0,ROUND(M45/R45,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N46" s="28">
+      <c r="N46" s="26">
         <f>IF(R45=0,0,ROUND(N45/R45,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O46" s="30">
+      <c r="O46" s="28">
         <f>IF(R45=0,0,ROUND(O45/R45,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P46" s="28">
+      <c r="P46" s="26">
         <f>IF(R45=0,0,ROUND(P45/R45,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q46" s="31">
+      <c r="Q46" s="29">
         <f>IF(R45=0,0,ROUND(Q45/R45,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R46" s="22">
+      <c r="R46" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S46" s="23">
+      <c r="S46" s="21">
         <f>(B46+D46+F46+H46+J46+N46)</f>
         <v>0</v>
       </c>
-      <c r="T46" s="23">
+      <c r="T46" s="21">
         <f>(C46+E46+G46+I46+K46+O46)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" s="8" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A47" s="18" t="s">
+    <row r="47" spans="1:20" ht="15.2" customHeight="1">
+      <c r="A47" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B47" s="6"/>
@@ -7029,106 +7004,105 @@
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
-      <c r="O47" s="27"/>
+      <c r="O47" s="25"/>
       <c r="P47" s="6"/>
       <c r="Q47" s="5"/>
-      <c r="R47" s="22">
+      <c r="R47" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S47" s="24">
+      <c r="S47" s="22">
         <f>B47+D47+F47+H47+J47+L47+N47</f>
         <v>0</v>
       </c>
-      <c r="T47" s="24">
+      <c r="T47" s="22">
         <f>C47+E47+G47+I47+K47+M47+O47</f>
         <v>0</v>
       </c>
-      <c r="U47" s="14"/>
-    </row>
-    <row r="48" spans="1:21">
-      <c r="A48" s="32" t="s">
+    </row>
+    <row r="48" spans="1:20">
+      <c r="A48" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="28">
+      <c r="B48" s="26">
         <f>IF(R47=0,0,ROUND(B47/R47,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C48" s="28">
+      <c r="C48" s="26">
         <f>IF(R47=0,0,ROUND(C47/R47,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D48" s="28">
+      <c r="D48" s="26">
         <f>IF(R47=0,0,ROUND(D47/R47,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E48" s="28">
+      <c r="E48" s="26">
         <f>IF(R47=0,0,ROUND(E47/R47,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F48" s="28">
+      <c r="F48" s="26">
         <f>IF(R47=0,0,ROUND(F47/R47,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G48" s="28">
+      <c r="G48" s="26">
         <f>IF(R47=0,0,ROUND(G47/R47,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H48" s="28">
+      <c r="H48" s="26">
         <f>IF(R47=0,0,ROUND(H47/R47,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I48" s="28">
+      <c r="I48" s="26">
         <f>IF(R47=0,0,ROUND(I47/R47,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J48" s="28">
+      <c r="J48" s="26">
         <f>IF(R47=0,0,ROUND(J47/R47,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K48" s="28">
+      <c r="K48" s="26">
         <f>IF(R47=0,0,ROUND(K47/R47,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L48" s="29">
+      <c r="L48" s="27">
         <f>IF(R47=0,0,ROUND(L47/R47,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M48" s="29">
+      <c r="M48" s="27">
         <f>IF(R47=0,0,ROUND(M47/R47,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N48" s="28">
+      <c r="N48" s="26">
         <f>IF(R47=0,0,ROUND(N47/R47,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O48" s="30">
+      <c r="O48" s="28">
         <f>IF(R47=0,0,ROUND(O47/R47,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P48" s="28">
+      <c r="P48" s="26">
         <f>IF(R47=0,0,ROUND(P47/R47,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q48" s="31">
+      <c r="Q48" s="29">
         <f>IF(R47=0,0,ROUND(Q47/R47,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R48" s="22">
+      <c r="R48" s="20">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S48" s="23">
+      <c r="S48" s="21">
         <f>(B48+D48+F48+H48+J48+N48)</f>
         <v>0</v>
       </c>
-      <c r="T48" s="23">
+      <c r="T48" s="21">
         <f>(C48+E48+G48+I48+K48+O48)</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:21">
-      <c r="A49" s="36"/>
+      <c r="A49" s="34"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -7142,24 +7116,24 @@
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
-      <c r="O49" s="27"/>
+      <c r="O49" s="25"/>
       <c r="P49" s="4"/>
       <c r="Q49" s="5"/>
-      <c r="R49" s="22">
+      <c r="R49" s="20">
         <f>SUM(B49:Q49)/2</f>
         <v>0</v>
       </c>
-      <c r="S49" s="24">
+      <c r="S49" s="22">
         <f t="shared" ref="S49:T51" si="5">B49+D49+F49+H49+J49+L49+N49</f>
         <v>0</v>
       </c>
-      <c r="T49" s="24">
+      <c r="T49" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:21">
-      <c r="A50" s="36"/>
+      <c r="A50" s="34"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -7173,24 +7147,24 @@
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
-      <c r="O50" s="27"/>
+      <c r="O50" s="25"/>
       <c r="P50" s="4"/>
       <c r="Q50" s="5"/>
-      <c r="R50" s="22">
+      <c r="R50" s="20">
         <f>SUM(B50:Q50)/2</f>
         <v>0</v>
       </c>
-      <c r="S50" s="24">
+      <c r="S50" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T50" s="24">
+      <c r="T50" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:21">
-      <c r="A51" s="37"/>
+      <c r="A51" s="35"/>
       <c r="B51" s="4">
         <f t="shared" ref="B51:O51" si="6">SUM(B25:B50)</f>
         <v>0</v>
@@ -7243,7 +7217,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O51" s="27">
+      <c r="O51" s="25">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -7255,105 +7229,105 @@
         <f>SUM(Q25:Q50)</f>
         <v>0</v>
       </c>
-      <c r="R51" s="22">
+      <c r="R51" s="20">
         <f>SUM(B51:Q51)/2</f>
         <v>0</v>
       </c>
-      <c r="S51" s="25">
+      <c r="S51" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T51" s="25">
+      <c r="T51" s="23">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="17.25" thickBot="1">
-      <c r="A52" s="38" t="s">
+      <c r="A52" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B52" s="39">
+      <c r="B52" s="37">
         <f>IF(R51=0,0,ROUND(B51/R51,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C52" s="39">
+      <c r="C52" s="37">
         <f>IF(R51=0,0,ROUND(C51/R51,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D52" s="39">
+      <c r="D52" s="37">
         <f>IF(R51=0,0,ROUND(D51/R51,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E52" s="39">
+      <c r="E52" s="37">
         <f>IF(R51=0,0,ROUND(E51/R51,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F52" s="39">
+      <c r="F52" s="37">
         <f>IF(R51=0,0,ROUND(F51/R51,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G52" s="39">
+      <c r="G52" s="37">
         <f>IF(R51=0,0,ROUND(G51/R51,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H52" s="39">
+      <c r="H52" s="37">
         <f>IF(R51=0,0,ROUND(H51/R51,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I52" s="39">
+      <c r="I52" s="37">
         <f>IF(R51=0,0,ROUND(I51/R51,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J52" s="39">
+      <c r="J52" s="37">
         <f>IF(R51=0,0,ROUND(J51/R51,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K52" s="39">
+      <c r="K52" s="37">
         <f>IF(R51=0,0,ROUND(K51/R51,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L52" s="40">
+      <c r="L52" s="38">
         <f xml:space="preserve"> 100 - B52 - D52 - F52 - H52 - J52 - N52 - P52</f>
         <v>100</v>
       </c>
-      <c r="M52" s="40">
+      <c r="M52" s="38">
         <f>100 - C52 - E52 - G52 - I52 - K52 - O52 - Q52</f>
         <v>100</v>
       </c>
-      <c r="N52" s="39">
+      <c r="N52" s="37">
         <f>IF(R51=0,0,ROUND(N51/R51,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="O52" s="41">
+      <c r="O52" s="39">
         <f>IF(R51=0,0,ROUND(O51/R51,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="P52" s="39">
+      <c r="P52" s="37">
         <f>IF(T51=0,0,ROUND(P51/T51,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q52" s="42">
+      <c r="Q52" s="40">
         <f>IF(T51=0,0,ROUND(Q51/T51,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="R52" s="22">
+      <c r="R52" s="20">
         <f>SUM(B52:Q52)/2</f>
         <v>100</v>
       </c>
-      <c r="S52" s="23">
+      <c r="S52" s="21">
         <f>(B52+D52+F52+H52+J52+N52)</f>
         <v>0</v>
       </c>
-      <c r="T52" s="23">
+      <c r="T52" s="21">
         <f>(C52+E52+G52+I52+K52+O52)</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:21">
-      <c r="R53" s="14"/>
+      <c r="R53" s="12"/>
     </row>
     <row r="56" spans="1:21">
-      <c r="U56" s="14" t="s">
+      <c r="U56" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -7421,617 +7395,617 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="35" customWidth="1"/>
+    <col min="1" max="1" width="9" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="33" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="17">
+      <c r="C1" s="15">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="16">
+      <c r="A2" s="32"/>
+      <c r="B2" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="34"/>
-      <c r="B3" s="16">
+      <c r="A3" s="32"/>
+      <c r="B3" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="34"/>
-      <c r="B4" s="16">
+      <c r="A4" s="32"/>
+      <c r="B4" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="34"/>
-      <c r="B5" s="16">
+      <c r="A5" s="32"/>
+      <c r="B5" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="34"/>
-      <c r="B6" s="16">
+      <c r="A6" s="32"/>
+      <c r="B6" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="34"/>
-      <c r="B7" s="16">
+      <c r="A7" s="32"/>
+      <c r="B7" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="34"/>
-      <c r="B8" s="16">
+      <c r="A8" s="32"/>
+      <c r="B8" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="34"/>
-      <c r="B9" s="16">
+      <c r="A9" s="32"/>
+      <c r="B9" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="34"/>
-      <c r="B10" s="16">
+      <c r="A10" s="32"/>
+      <c r="B10" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="34"/>
-      <c r="B11" s="16">
+      <c r="A11" s="32"/>
+      <c r="B11" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="34"/>
-      <c r="B12" s="16">
+      <c r="A12" s="32"/>
+      <c r="B12" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="34"/>
-      <c r="B13" s="16">
+      <c r="A13" s="32"/>
+      <c r="B13" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="34"/>
-      <c r="B14" s="16">
+      <c r="A14" s="32"/>
+      <c r="B14" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="34"/>
-      <c r="B15" s="16">
+      <c r="A15" s="32"/>
+      <c r="B15" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="34"/>
-      <c r="B16" s="16">
+      <c r="A16" s="32"/>
+      <c r="B16" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="34"/>
-      <c r="B17" s="16">
+      <c r="A17" s="32"/>
+      <c r="B17" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="34"/>
-      <c r="B18" s="16">
+      <c r="A18" s="32"/>
+      <c r="B18" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="34"/>
-      <c r="B19" s="16">
+      <c r="A19" s="32"/>
+      <c r="B19" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="34"/>
-      <c r="B20" s="16">
+      <c r="A20" s="32"/>
+      <c r="B20" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="34"/>
-      <c r="B21" s="16">
+      <c r="A21" s="32"/>
+      <c r="B21" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="34"/>
-      <c r="B22" s="16">
+      <c r="A22" s="32"/>
+      <c r="B22" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="34"/>
-      <c r="B23" s="16">
+      <c r="A23" s="32"/>
+      <c r="B23" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="34"/>
-      <c r="B24" s="16">
+      <c r="A24" s="32"/>
+      <c r="B24" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="34"/>
-      <c r="B25" s="16">
+      <c r="A25" s="32"/>
+      <c r="B25" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="34"/>
-      <c r="B26" s="16">
+      <c r="A26" s="32"/>
+      <c r="B26" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="34"/>
-      <c r="B27" s="16">
+      <c r="A27" s="32"/>
+      <c r="B27" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="34"/>
-      <c r="B28" s="16">
+      <c r="A28" s="32"/>
+      <c r="B28" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="34"/>
-      <c r="B29" s="16">
+      <c r="A29" s="32"/>
+      <c r="B29" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="34"/>
-      <c r="B30" s="16">
+      <c r="A30" s="32"/>
+      <c r="B30" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="34"/>
-      <c r="B31" s="16">
+      <c r="A31" s="32"/>
+      <c r="B31" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="34"/>
-      <c r="B32" s="16">
+      <c r="A32" s="32"/>
+      <c r="B32" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="34"/>
-      <c r="B33" s="16">
+      <c r="A33" s="32"/>
+      <c r="B33" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="34"/>
-      <c r="B34" s="16">
+      <c r="A34" s="32"/>
+      <c r="B34" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="34"/>
-      <c r="B35" s="16">
+      <c r="A35" s="32"/>
+      <c r="B35" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="34"/>
-      <c r="B36" s="16">
+      <c r="A36" s="32"/>
+      <c r="B36" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="34"/>
-      <c r="B37" s="16">
+      <c r="A37" s="32"/>
+      <c r="B37" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="34"/>
-      <c r="B38" s="16">
+      <c r="A38" s="32"/>
+      <c r="B38" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="34"/>
-      <c r="B39" s="16">
+      <c r="A39" s="32"/>
+      <c r="B39" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="34"/>
-      <c r="B40" s="16">
+      <c r="A40" s="32"/>
+      <c r="B40" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="34"/>
-      <c r="B41" s="16">
+      <c r="A41" s="32"/>
+      <c r="B41" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="34"/>
-      <c r="B42" s="16">
+      <c r="A42" s="32"/>
+      <c r="B42" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="34"/>
-      <c r="B43" s="16">
+      <c r="A43" s="32"/>
+      <c r="B43" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="34"/>
-      <c r="B44" s="16">
+      <c r="A44" s="32"/>
+      <c r="B44" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="34"/>
-      <c r="B45" s="16">
+      <c r="A45" s="32"/>
+      <c r="B45" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="34"/>
-      <c r="B46" s="16">
+      <c r="A46" s="32"/>
+      <c r="B46" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="34"/>
-      <c r="B47" s="16">
+      <c r="A47" s="32"/>
+      <c r="B47" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="34"/>
-      <c r="B48" s="16">
+      <c r="A48" s="32"/>
+      <c r="B48" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="34"/>
-      <c r="B49" s="16">
+      <c r="A49" s="32"/>
+      <c r="B49" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="34"/>
-      <c r="B50" s="16">
+      <c r="A50" s="32"/>
+      <c r="B50" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="34"/>
-      <c r="B51" s="16">
+      <c r="A51" s="32"/>
+      <c r="B51" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="34"/>
-      <c r="B52" s="16">
+      <c r="A52" s="32"/>
+      <c r="B52" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="34"/>
-      <c r="B53" s="16">
+      <c r="A53" s="32"/>
+      <c r="B53" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="34"/>
-      <c r="B54" s="16">
+      <c r="A54" s="32"/>
+      <c r="B54" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="34"/>
-      <c r="B55" s="16">
+      <c r="A55" s="32"/>
+      <c r="B55" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="34"/>
-      <c r="B56" s="16">
+      <c r="A56" s="32"/>
+      <c r="B56" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="34"/>
-      <c r="B57" s="16">
+      <c r="A57" s="32"/>
+      <c r="B57" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="34"/>
-      <c r="B58" s="16">
+      <c r="A58" s="32"/>
+      <c r="B58" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="34"/>
-      <c r="B59" s="16">
+      <c r="A59" s="32"/>
+      <c r="B59" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="34"/>
-      <c r="B60" s="16">
+      <c r="A60" s="32"/>
+      <c r="B60" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="34"/>
-      <c r="B61" s="16">
+      <c r="A61" s="32"/>
+      <c r="B61" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="34"/>
-      <c r="B62" s="16">
+      <c r="A62" s="32"/>
+      <c r="B62" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="34"/>
-      <c r="B63" s="16">
+      <c r="A63" s="32"/>
+      <c r="B63" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="34"/>
-      <c r="B64" s="16">
+      <c r="A64" s="32"/>
+      <c r="B64" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="34"/>
-      <c r="B65" s="16">
+      <c r="A65" s="32"/>
+      <c r="B65" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="34"/>
-      <c r="B66" s="16">
+      <c r="A66" s="32"/>
+      <c r="B66" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="33"/>
-      <c r="B67" s="16">
+      <c r="A67" s="31"/>
+      <c r="B67" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="33"/>
-      <c r="B68" s="16">
+      <c r="A68" s="31"/>
+      <c r="B68" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="33"/>
-      <c r="B69" s="16">
+      <c r="A69" s="31"/>
+      <c r="B69" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="33"/>
-      <c r="B70" s="16">
+      <c r="A70" s="31"/>
+      <c r="B70" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="33"/>
-      <c r="B71" s="16">
+      <c r="A71" s="31"/>
+      <c r="B71" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="33"/>
-      <c r="B72" s="16">
+      <c r="A72" s="31"/>
+      <c r="B72" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="33"/>
-      <c r="B73" s="16">
+      <c r="A73" s="31"/>
+      <c r="B73" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="33"/>
-      <c r="B74" s="16">
+      <c r="A74" s="31"/>
+      <c r="B74" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="33"/>
-      <c r="B75" s="16">
+      <c r="A75" s="31"/>
+      <c r="B75" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="33"/>
-      <c r="B76" s="16">
+      <c r="A76" s="31"/>
+      <c r="B76" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="33"/>
-      <c r="B77" s="16">
+      <c r="A77" s="31"/>
+      <c r="B77" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="33"/>
-      <c r="B78" s="16">
+      <c r="A78" s="31"/>
+      <c r="B78" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="33"/>
-      <c r="B79" s="16">
+      <c r="A79" s="31"/>
+      <c r="B79" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="33"/>
-      <c r="B80" s="16">
+      <c r="A80" s="31"/>
+      <c r="B80" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="33"/>
-      <c r="B81" s="16">
+      <c r="A81" s="31"/>
+      <c r="B81" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="33"/>
-      <c r="B82" s="16">
+      <c r="A82" s="31"/>
+      <c r="B82" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="33"/>
-      <c r="B83" s="16">
+      <c r="A83" s="31"/>
+      <c r="B83" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="33"/>
-      <c r="B84" s="16">
+      <c r="A84" s="31"/>
+      <c r="B84" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="33"/>
-      <c r="B85" s="16">
+      <c r="A85" s="31"/>
+      <c r="B85" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="33"/>
-      <c r="B86" s="16">
+      <c r="A86" s="31"/>
+      <c r="B86" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="33"/>
-      <c r="B87" s="16">
+      <c r="A87" s="31"/>
+      <c r="B87" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="33"/>
-      <c r="B88" s="16">
+      <c r="A88" s="31"/>
+      <c r="B88" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="33"/>
-      <c r="B89" s="16">
+      <c r="A89" s="31"/>
+      <c r="B89" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="33"/>
-      <c r="B90" s="16">
+      <c r="A90" s="31"/>
+      <c r="B90" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="33"/>
-      <c r="B91" s="16">
+      <c r="A91" s="31"/>
+      <c r="B91" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="33"/>
-      <c r="B92" s="16">
+      <c r="A92" s="31"/>
+      <c r="B92" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="33"/>
-      <c r="B93" s="16">
+      <c r="A93" s="31"/>
+      <c r="B93" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="33"/>
-      <c r="B94" s="16">
+      <c r="A94" s="31"/>
+      <c r="B94" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="33"/>
-      <c r="B95" s="16">
+      <c r="A95" s="31"/>
+      <c r="B95" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="33"/>
-      <c r="B96" s="16">
+      <c r="A96" s="31"/>
+      <c r="B96" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="33"/>
-      <c r="B97" s="16">
+      <c r="A97" s="31"/>
+      <c r="B97" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="33"/>
-      <c r="B98" s="16">
+      <c r="A98" s="31"/>
+      <c r="B98" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="33"/>
-      <c r="B99" s="16">
+      <c r="A99" s="31"/>
+      <c r="B99" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="33"/>
-      <c r="B100" s="16">
+      <c r="A100" s="31"/>
+      <c r="B100" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="33"/>
-      <c r="B101" s="16">
+      <c r="A101" s="31"/>
+      <c r="B101" s="14">
         <v>0</v>
       </c>
     </row>
